--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>SIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,207 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F8" s="3">
         <v>16200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>16300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>15000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>15600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>13400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>13700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>12700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>11100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>11400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F10" s="3">
         <v>14600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>14700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>13500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>14200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>12200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>12500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>11700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>10400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>10000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>10000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,46 +880,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,8 +964,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1008,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,8 +1052,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1071,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F17" s="3">
         <v>26800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>24500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>23800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>19900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>16400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>15400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>16700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>17000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-8200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-8800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1112,84 +1177,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-9900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-7200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-7900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-5400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1203,10 +1282,10 @@
         <v>1200</v>
       </c>
       <c r="G22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I22" s="3">
         <v>1300</v>
@@ -1215,57 +1294,69 @@
         <v>1300</v>
       </c>
       <c r="K22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-9300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1290,11 +1381,11 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>19</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>19</v>
@@ -1302,8 +1393,14 @@
       <c r="N24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1437,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-9300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-9300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1569,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1613,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1657,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1701,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-9300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1833,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-9300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1948,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,32 +1966,34 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12600</v>
+        <v>67600</v>
       </c>
       <c r="E41" s="3">
-        <v>11500</v>
+        <v>10400</v>
       </c>
       <c r="F41" s="3">
         <v>12600</v>
       </c>
       <c r="G41" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>12600</v>
+      </c>
+      <c r="I41" s="3">
         <v>25100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>14000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>19</v>
       </c>
@@ -1833,29 +2006,35 @@
       <c r="N41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>81300</v>
+      </c>
+      <c r="F42" s="3">
         <v>83600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>91800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>102700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>97100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>19</v>
       </c>
@@ -1871,32 +2050,38 @@
       <c r="N42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F43" s="3">
         <v>9900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>9400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>8400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>8500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>7100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>19</v>
       </c>
@@ -1909,32 +2094,38 @@
       <c r="N43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F44" s="3">
         <v>5000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>4400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>19</v>
       </c>
@@ -1947,32 +2138,38 @@
       <c r="N44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>19</v>
       </c>
@@ -1985,32 +2182,38 @@
       <c r="N45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>111500</v>
+      </c>
+      <c r="F46" s="3">
         <v>112700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>119000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>129400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>136000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>24900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>19</v>
       </c>
@@ -2023,23 +2226,29 @@
       <c r="N46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F47" s="3">
         <v>5300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>5300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>19</v>
       </c>
@@ -2049,11 +2258,11 @@
       <c r="J47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2061,32 +2270,38 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F48" s="3">
         <v>3000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>19</v>
       </c>
@@ -2099,8 +2314,14 @@
       <c r="N48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2137,8 +2358,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2402,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,8 +2446,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2231,14 +2470,14 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>19</v>
       </c>
@@ -2251,8 +2490,14 @@
       <c r="N52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,32 +2534,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>167800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>117000</v>
+      </c>
+      <c r="F54" s="3">
         <v>121300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>127100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>132100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>138500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>28400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>19</v>
       </c>
@@ -2327,8 +2578,14 @@
       <c r="N54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2600,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,8 +2618,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2368,23 +2629,23 @@
         <v>2600</v>
       </c>
       <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>19</v>
       </c>
@@ -2397,31 +2658,37 @@
       <c r="N57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>4400</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2435,32 +2702,38 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F59" s="3">
         <v>10200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>19</v>
       </c>
@@ -2473,32 +2746,38 @@
       <c r="N59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F60" s="3">
         <v>12800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>19</v>
       </c>
@@ -2511,32 +2790,38 @@
       <c r="N60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F61" s="3">
         <v>39200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>39100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>39000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>39000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>40000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2834,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2567,14 +2858,14 @@
         <v>400</v>
       </c>
       <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>19</v>
       </c>
@@ -2587,8 +2878,14 @@
       <c r="N62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2922,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2966,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,31 +3010,37 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F66" s="3">
         <v>52400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>49400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>49300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>48300</v>
       </c>
       <c r="H66" s="3">
         <v>49300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>19</v>
+      <c r="I66" s="3">
+        <v>48300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>49300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>19</v>
@@ -2739,8 +3054,14 @@
       <c r="N66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +3076,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +3116,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +3160,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2849,14 +3184,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>118500</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -2869,8 +3204,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,32 +3248,38 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-208400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-195600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-186500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-175200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-166500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-157200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-151900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>19</v>
       </c>
@@ -2945,8 +3292,14 @@
       <c r="N72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3336,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3380,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,32 +3424,38 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>63000</v>
+      </c>
+      <c r="F76" s="3">
         <v>69000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>77700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>82800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>90200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-139400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>19</v>
       </c>
@@ -3097,8 +3468,14 @@
       <c r="N76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3512,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-9300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3627,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3259,19 +3656,25 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
       </c>
       <c r="N83" s="3">
+        <v>300</v>
+      </c>
+      <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3711,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3755,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3799,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3843,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3887,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7100</v>
+        <v>-9400</v>
       </c>
       <c r="E89" s="3">
-        <v>-8400</v>
+        <v>-9000</v>
       </c>
       <c r="F89" s="3">
         <v>-7100</v>
       </c>
       <c r="G89" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-6300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,46 +3953,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +4037,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,46 +4081,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F94" s="3">
         <v>7700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>5700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-97000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +4147,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +4187,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +4231,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4275,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,51 +4319,63 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>114500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>5500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3896,56 +4393,68 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-12600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>11100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-4900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-5400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,220 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E8" s="3">
         <v>16800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1600</v>
       </c>
       <c r="G9" s="3">
         <v>1600</v>
       </c>
       <c r="H9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I9" s="3">
         <v>1500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1200</v>
       </c>
       <c r="K9" s="3">
         <v>1200</v>
       </c>
       <c r="L9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E10" s="3">
         <v>14900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10400</v>
-      </c>
-      <c r="N10" s="3">
-        <v>10000</v>
       </c>
       <c r="O10" s="3">
         <v>10000</v>
       </c>
       <c r="P10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Q10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,52 +895,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
         <v>2100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1900</v>
       </c>
       <c r="G12" s="3">
         <v>1900</v>
       </c>
       <c r="H12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I12" s="3">
         <v>1700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,8 +987,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1014,8 +1034,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1099,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E17" s="3">
         <v>28700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1179,8 +1212,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1188,92 +1222,98 @@
         <v>400</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>700</v>
       </c>
       <c r="H20" s="3">
         <v>700</v>
       </c>
       <c r="I20" s="3">
+        <v>700</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="E22" s="3">
         <v>1200</v>
@@ -1288,7 +1328,7 @@
         <v>1200</v>
       </c>
       <c r="I22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J22" s="3">
         <v>1300</v>
@@ -1300,63 +1340,69 @@
         <v>1300</v>
       </c>
       <c r="M22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="N22" s="3">
         <v>1000</v>
       </c>
       <c r="O22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P22" s="3">
         <v>900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1387,8 +1433,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>19</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>19</v>
@@ -1399,8 +1445,11 @@
       <c r="P24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1774,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1716,87 +1786,93 @@
         <v>-400</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-700</v>
       </c>
       <c r="H32" s="3">
         <v>-700</v>
       </c>
       <c r="I32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,35 +2054,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E41" s="3">
         <v>67600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2012,32 +2099,35 @@
       <c r="P41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E42" s="3">
         <v>77400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>81300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>83600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>91800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>102700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>97100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>19</v>
       </c>
@@ -2056,35 +2146,38 @@
       <c r="P42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E43" s="3">
         <v>9400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2100,35 +2193,38 @@
       <c r="P43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>19</v>
       </c>
@@ -2144,35 +2240,38 @@
       <c r="P44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>19</v>
       </c>
@@ -2188,35 +2287,38 @@
       <c r="P45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>154500</v>
+      </c>
+      <c r="E46" s="3">
         <v>162000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>111500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>112700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>119000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>129400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>136000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>19</v>
       </c>
@@ -2232,25 +2334,28 @@
       <c r="P46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>1300</v>
       </c>
       <c r="F47" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="G47" s="3">
         <v>5300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>19</v>
+      <c r="H47" s="3">
+        <v>5300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>19</v>
@@ -2264,8 +2369,8 @@
       <c r="L47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2276,35 +2381,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E48" s="3">
         <v>4300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>19</v>
       </c>
@@ -2320,8 +2428,11 @@
       <c r="P48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2475,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2569,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2476,11 +2596,11 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>19</v>
       </c>
@@ -2496,8 +2616,11 @@
       <c r="P52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,35 +2663,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>159200</v>
+      </c>
+      <c r="E54" s="3">
         <v>167800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>117000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>121300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>127100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>132100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>138500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>19</v>
       </c>
@@ -2584,8 +2710,11 @@
       <c r="P54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,35 +2750,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>19</v>
       </c>
@@ -2664,20 +2795,23 @@
       <c r="P57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>8700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4400</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>19</v>
       </c>
@@ -2690,8 +2824,8 @@
       <c r="J58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2708,8 +2842,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2717,26 +2854,26 @@
         <v>9300</v>
       </c>
       <c r="E59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F59" s="3">
         <v>11600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>19</v>
       </c>
@@ -2752,35 +2889,38 @@
       <c r="P59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E60" s="3">
         <v>20600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>9900</v>
       </c>
       <c r="H60" s="3">
         <v>9900</v>
       </c>
       <c r="I60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J60" s="3">
         <v>9000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>19</v>
       </c>
@@ -2796,35 +2936,38 @@
       <c r="P60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E61" s="3">
         <v>30600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>34900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>39000</v>
       </c>
       <c r="I61" s="3">
         <v>39000</v>
       </c>
       <c r="J61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K61" s="3">
         <v>40000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2840,8 +2983,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2864,11 +3010,11 @@
         <v>400</v>
       </c>
       <c r="J62" s="3">
+        <v>400</v>
+      </c>
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>19</v>
       </c>
@@ -2884,8 +3030,11 @@
       <c r="P62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,35 +3171,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E66" s="3">
         <v>51500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>52400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>49400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>49300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>48300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>49300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>19</v>
       </c>
@@ -3060,8 +3218,11 @@
       <c r="P66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3190,11 +3358,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>118500</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,35 +3425,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-220800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-208400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-195600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-186500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-175200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-166500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-157200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-151900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>19</v>
       </c>
@@ -3298,8 +3472,11 @@
       <c r="P72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,35 +3613,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E76" s="3">
         <v>116300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>63000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>77700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>82800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>90200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-139400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>19</v>
       </c>
@@ -3474,8 +3660,11 @@
       <c r="P76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,13 +3827,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -3662,7 +3861,7 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -3671,10 +3870,13 @@
         <v>300</v>
       </c>
       <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4107,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4175,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4314,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E94" s="3">
         <v>3300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-97000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,52 +4568,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>63200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>114500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4381,80 +4630,86 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>57100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>SIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,233 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E8" s="3">
         <v>14000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E9" s="3">
         <v>2100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1600</v>
       </c>
       <c r="H9" s="3">
         <v>1600</v>
       </c>
       <c r="I9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J9" s="3">
         <v>1500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1200</v>
       </c>
       <c r="L9" s="3">
         <v>1200</v>
       </c>
       <c r="M9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E10" s="3">
         <v>11900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>10000</v>
       </c>
       <c r="P10" s="3">
         <v>10000</v>
       </c>
       <c r="Q10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,55 +909,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1900</v>
       </c>
       <c r="H12" s="3">
         <v>1900</v>
       </c>
       <c r="I12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J12" s="3">
         <v>1700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,8 +1007,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -999,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1037,8 +1057,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1084,8 +1107,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,102 +1126,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>24200</v>
+        <v>29000</v>
       </c>
       <c r="E17" s="3">
+        <v>25700</v>
+      </c>
+      <c r="F17" s="3">
         <v>28700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-10200</v>
+        <v>-8600</v>
       </c>
       <c r="E18" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,107 +1246,114 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
       </c>
       <c r="F20" s="3">
+        <v>400</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>700</v>
       </c>
       <c r="I20" s="3">
         <v>700</v>
       </c>
       <c r="J20" s="3">
+        <v>700</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-9500</v>
+        <v>-8100</v>
       </c>
       <c r="E21" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="3">
         <v>1200</v>
@@ -1331,7 +1371,7 @@
         <v>1200</v>
       </c>
       <c r="J22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K22" s="3">
         <v>1300</v>
@@ -1343,66 +1383,72 @@
         <v>1300</v>
       </c>
       <c r="N22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="O22" s="3">
         <v>1000</v>
       </c>
       <c r="P22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1436,8 +1482,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>19</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>19</v>
@@ -1448,8 +1494,11 @@
       <c r="Q24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1544,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1694,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1744,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,102 +1844,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
       </c>
       <c r="F32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-700</v>
       </c>
       <c r="I32" s="3">
         <v>-700</v>
       </c>
       <c r="J32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +1994,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,38 +2141,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E41" s="3">
         <v>66200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2102,35 +2189,38 @@
       <c r="Q41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E42" s="3">
         <v>71500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>77400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>81300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>83600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>91800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>102700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>97100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>19</v>
       </c>
@@ -2149,38 +2239,41 @@
       <c r="Q42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E43" s="3">
         <v>10300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2196,38 +2289,41 @@
       <c r="Q43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E44" s="3">
         <v>5000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>19</v>
       </c>
@@ -2243,38 +2339,41 @@
       <c r="Q44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>19</v>
       </c>
@@ -2290,38 +2389,41 @@
       <c r="Q45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>149500</v>
+      </c>
+      <c r="E46" s="3">
         <v>154500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>162000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>111500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>112700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>119000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>129400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>136000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>19</v>
       </c>
@@ -2337,8 +2439,11 @@
       <c r="Q46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2346,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>1300</v>
       </c>
       <c r="G47" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="H47" s="3">
         <v>5300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>19</v>
+      <c r="I47" s="3">
+        <v>5300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>19</v>
@@ -2372,8 +2477,8 @@
       <c r="M47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2384,38 +2489,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>19</v>
       </c>
@@ -2431,8 +2539,11 @@
       <c r="Q48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2478,8 +2589,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,8 +2689,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2599,11 +2719,11 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>19</v>
       </c>
@@ -2619,8 +2739,11 @@
       <c r="Q52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,38 +2789,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>154300</v>
+      </c>
+      <c r="E54" s="3">
         <v>159200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>167800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>117000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>121300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>127100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>132100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>138500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>19</v>
       </c>
@@ -2713,8 +2839,11 @@
       <c r="Q54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,38 +2881,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>19</v>
       </c>
@@ -2798,8 +2929,11 @@
       <c r="Q57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2807,14 +2941,14 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>8700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4400</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>19</v>
       </c>
@@ -2827,8 +2961,8 @@
       <c r="K58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2845,38 +2979,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9300</v>
+        <v>8700</v>
       </c>
       <c r="E59" s="3">
         <v>9300</v>
       </c>
       <c r="F59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G59" s="3">
         <v>11600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>19</v>
       </c>
@@ -2892,38 +3029,41 @@
       <c r="Q59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E60" s="3">
         <v>11700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>9900</v>
       </c>
       <c r="I60" s="3">
         <v>9900</v>
       </c>
       <c r="J60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K60" s="3">
         <v>9000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>19</v>
       </c>
@@ -2939,38 +3079,41 @@
       <c r="Q60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E61" s="3">
         <v>39300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>30600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>34900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>39000</v>
       </c>
       <c r="J61" s="3">
         <v>39000</v>
       </c>
       <c r="K61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="L61" s="3">
         <v>40000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2986,13 +3129,16 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -3013,11 +3159,11 @@
         <v>400</v>
       </c>
       <c r="K62" s="3">
+        <v>400</v>
+      </c>
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>19</v>
       </c>
@@ -3033,8 +3179,11 @@
       <c r="Q62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,38 +3329,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E66" s="3">
         <v>51400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>51500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>52400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>49400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>48300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>19</v>
       </c>
@@ -3221,8 +3379,11 @@
       <c r="Q66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3361,11 +3529,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>118500</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3381,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,38 +3599,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-230300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-220800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-208400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-195600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-186500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-175200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-166500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-157200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-151900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>19</v>
       </c>
@@ -3475,8 +3649,11 @@
       <c r="Q72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,38 +3799,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E76" s="3">
         <v>107900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>116300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>63000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>69000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>77700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>82800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>90200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-139400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>19</v>
       </c>
@@ -3663,8 +3849,11 @@
       <c r="Q76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +3899,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,8 +4026,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3837,7 +4036,7 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -3864,7 +4063,7 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
@@ -3873,10 +4072,13 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,55 +4324,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,55 +4396,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,55 +4544,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E94" s="3">
         <v>6700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-97000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,60 +4814,66 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>63200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>114500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4633,83 +4882,89 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>57100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E8" s="3">
         <v>20400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E9" s="3">
         <v>2600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1600</v>
       </c>
       <c r="I9" s="3">
         <v>1600</v>
       </c>
       <c r="J9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1200</v>
       </c>
       <c r="M9" s="3">
         <v>1200</v>
       </c>
       <c r="N9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E10" s="3">
         <v>17800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>10000</v>
       </c>
       <c r="Q10" s="3">
         <v>10000</v>
       </c>
       <c r="R10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="S10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
         <v>2800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1900</v>
       </c>
       <c r="I12" s="3">
         <v>1900</v>
       </c>
       <c r="J12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1010,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1019,11 +1038,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1036,8 +1055,8 @@
       <c r="J14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1060,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1110,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E17" s="3">
         <v>29000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>400</v>
       </c>
       <c r="F20" s="3">
         <v>400</v>
       </c>
       <c r="G20" s="3">
+        <v>400</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>700</v>
       </c>
       <c r="J20" s="3">
         <v>700</v>
       </c>
       <c r="K20" s="3">
+        <v>700</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1356,7 +1395,7 @@
         <v>1100</v>
       </c>
       <c r="E22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F22" s="3">
         <v>1200</v>
@@ -1374,7 +1413,7 @@
         <v>1200</v>
       </c>
       <c r="K22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="L22" s="3">
         <v>1300</v>
@@ -1386,69 +1425,75 @@
         <v>1300</v>
       </c>
       <c r="O22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="P22" s="3">
         <v>1000</v>
       </c>
       <c r="Q22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R22" s="3">
         <v>900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1485,8 +1530,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>19</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>19</v>
@@ -1497,8 +1542,11 @@
       <c r="R24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1747,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-400</v>
       </c>
       <c r="F32" s="3">
         <v>-400</v>
       </c>
       <c r="G32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-700</v>
       </c>
       <c r="J32" s="3">
         <v>-700</v>
       </c>
       <c r="K32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,41 +2227,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E41" s="3">
         <v>56000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>66200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>67600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2192,38 +2278,41 @@
       <c r="R41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E42" s="3">
         <v>76000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>71500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>77400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>81300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>83600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>91800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>102700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>97100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>19</v>
       </c>
@@ -2242,41 +2331,44 @@
       <c r="R42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E43" s="3">
         <v>11400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2292,41 +2384,44 @@
       <c r="R43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E44" s="3">
         <v>5100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>19</v>
       </c>
@@ -2342,41 +2437,44 @@
       <c r="R44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>19</v>
       </c>
@@ -2392,41 +2490,44 @@
       <c r="R45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>218200</v>
+      </c>
+      <c r="E46" s="3">
         <v>149500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>154500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>162000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>111500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>112700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>119000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>129400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>136000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>19</v>
       </c>
@@ -2442,8 +2543,11 @@
       <c r="R46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2454,19 +2558,19 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>1300</v>
       </c>
       <c r="H47" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="I47" s="3">
         <v>5300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>19</v>
+      <c r="J47" s="3">
+        <v>5300</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>19</v>
@@ -2480,8 +2584,8 @@
       <c r="N47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2492,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2501,32 +2608,32 @@
         <v>4500</v>
       </c>
       <c r="E48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>19</v>
       </c>
@@ -2542,8 +2649,11 @@
       <c r="R48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2592,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,13 +2808,16 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -2722,11 +2841,11 @@
         <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>19</v>
       </c>
@@ -2742,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,41 +2914,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>223100</v>
+      </c>
+      <c r="E54" s="3">
         <v>154300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>159200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>167800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>117000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>121300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>127100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>132100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>138500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>19</v>
       </c>
@@ -2842,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,41 +3011,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>19</v>
       </c>
@@ -2932,8 +3062,11 @@
       <c r="R57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2944,14 +3077,14 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>8700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>19</v>
       </c>
@@ -2964,8 +3097,8 @@
       <c r="L58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2982,41 +3115,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E59" s="3">
         <v>8700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>9300</v>
       </c>
       <c r="F59" s="3">
         <v>9300</v>
       </c>
       <c r="G59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H59" s="3">
         <v>11600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>19</v>
       </c>
@@ -3032,41 +3168,44 @@
       <c r="R59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E60" s="3">
         <v>11800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>9900</v>
       </c>
       <c r="J60" s="3">
         <v>9900</v>
       </c>
       <c r="K60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="L60" s="3">
         <v>9000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>19</v>
       </c>
@@ -3082,41 +3221,44 @@
       <c r="R60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E61" s="3">
         <v>39400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>30600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>34900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>39000</v>
       </c>
       <c r="K61" s="3">
         <v>39000</v>
       </c>
       <c r="L61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="M61" s="3">
         <v>40000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3132,16 +3274,19 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
@@ -3162,11 +3307,11 @@
         <v>400</v>
       </c>
       <c r="L62" s="3">
+        <v>400</v>
+      </c>
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>19</v>
       </c>
@@ -3182,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,41 +3486,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E66" s="3">
         <v>52300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>51400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>51500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>52400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>49300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>48300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>19</v>
       </c>
@@ -3382,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3532,11 +3699,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>118500</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3552,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,41 +3772,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-239300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-230300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-220800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-208400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-195600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-186500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-175200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-166500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-157200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-151900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>19</v>
       </c>
@@ -3652,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,41 +3984,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>169400</v>
+      </c>
+      <c r="E76" s="3">
         <v>102000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>107900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>116300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>63000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>69000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>77700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>82800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>90200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-139400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>19</v>
       </c>
@@ -3852,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4039,7 +4237,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -4066,7 +4264,7 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
@@ -4075,10 +4273,13 @@
         <v>300</v>
       </c>
       <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-67800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-97000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,67 +5059,73 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>63200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>114500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -4885,86 +5133,92 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>57100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>SIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E8" s="3">
         <v>22100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1600</v>
       </c>
       <c r="J9" s="3">
         <v>1600</v>
       </c>
       <c r="K9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1200</v>
       </c>
       <c r="N9" s="3">
         <v>1200</v>
       </c>
       <c r="O9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E10" s="3">
         <v>19800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>10000</v>
       </c>
       <c r="R10" s="3">
         <v>10000</v>
       </c>
       <c r="S10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +936,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1900</v>
       </c>
       <c r="J12" s="3">
         <v>1900</v>
       </c>
       <c r="K12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,23 +1046,26 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1058,8 +1078,8 @@
       <c r="K14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E17" s="3">
         <v>30000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,114 +1313,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>400</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
       </c>
       <c r="H20" s="3">
+        <v>400</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>700</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
       </c>
       <c r="L20" s="3">
+        <v>700</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1398,7 +1438,7 @@
         <v>1100</v>
       </c>
       <c r="F22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G22" s="3">
         <v>1200</v>
@@ -1416,7 +1456,7 @@
         <v>1200</v>
       </c>
       <c r="L22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="M22" s="3">
         <v>1300</v>
@@ -1428,72 +1468,78 @@
         <v>1300</v>
       </c>
       <c r="P22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Q22" s="3">
         <v>1000</v>
       </c>
       <c r="R22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S22" s="3">
         <v>900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1533,8 +1579,8 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>19</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>19</v>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-400</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
       </c>
       <c r="H32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-700</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
       </c>
       <c r="L32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,44 +2314,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E41" s="3">
         <v>53600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>66200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>67600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2281,41 +2368,44 @@
       <c r="S41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>147700</v>
+      </c>
+      <c r="E42" s="3">
         <v>142900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>76000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>71500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>77400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>81300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>83600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>91800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>102700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>97100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>19</v>
       </c>
@@ -2334,44 +2424,47 @@
       <c r="S42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E43" s="3">
         <v>13600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2387,44 +2480,47 @@
       <c r="S43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E44" s="3">
         <v>5600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>19</v>
       </c>
@@ -2440,8 +2536,11 @@
       <c r="S44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2449,35 +2548,35 @@
         <v>2600</v>
       </c>
       <c r="E45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>19</v>
       </c>
@@ -2493,44 +2592,47 @@
       <c r="S45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>208100</v>
+      </c>
+      <c r="E46" s="3">
         <v>218200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>149500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>154500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>162000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>111500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>112700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>119000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>129400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>136000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>19</v>
       </c>
@@ -2546,13 +2648,16 @@
       <c r="S46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2561,19 +2666,19 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>1300</v>
       </c>
       <c r="I47" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="J47" s="3">
         <v>5300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>19</v>
+      <c r="K47" s="3">
+        <v>5300</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>19</v>
@@ -2587,8 +2692,8 @@
       <c r="O47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2599,44 +2704,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4500</v>
+        <v>7300</v>
       </c>
       <c r="E48" s="3">
         <v>4500</v>
       </c>
       <c r="F48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>19</v>
       </c>
@@ -2652,8 +2760,11 @@
       <c r="S48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2820,7 +2940,7 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -2844,11 +2964,11 @@
         <v>300</v>
       </c>
       <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
         <v>1500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>19</v>
       </c>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,44 +3040,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>215800</v>
+      </c>
+      <c r="E54" s="3">
         <v>223100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>154300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>159200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>167800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>117000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>121300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>127100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>132100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>138500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>19</v>
       </c>
@@ -2970,8 +3096,11 @@
       <c r="S54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,44 +3142,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>19</v>
       </c>
@@ -3065,13 +3196,16 @@
       <c r="S57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3080,14 +3214,14 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>8700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>19</v>
       </c>
@@ -3100,8 +3234,8 @@
       <c r="M58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3118,44 +3252,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E59" s="3">
         <v>10200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>9300</v>
       </c>
       <c r="G59" s="3">
         <v>9300</v>
       </c>
       <c r="H59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I59" s="3">
         <v>11600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>19</v>
       </c>
@@ -3171,44 +3308,47 @@
       <c r="S59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E60" s="3">
         <v>13500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>9900</v>
       </c>
       <c r="K60" s="3">
         <v>9900</v>
       </c>
       <c r="L60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="M60" s="3">
         <v>9000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>19</v>
       </c>
@@ -3224,8 +3364,11 @@
       <c r="S60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3233,35 +3376,35 @@
         <v>39500</v>
       </c>
       <c r="E61" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F61" s="3">
         <v>39400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>34900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>39100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>39000</v>
       </c>
       <c r="L61" s="3">
         <v>39000</v>
       </c>
       <c r="M61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="N61" s="3">
         <v>40000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3277,19 +3420,22 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
@@ -3310,11 +3456,11 @@
         <v>400</v>
       </c>
       <c r="M62" s="3">
+        <v>400</v>
+      </c>
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>19</v>
       </c>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,44 +3644,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E66" s="3">
         <v>53800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>52300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>51400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>51500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>52400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>49400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>19</v>
       </c>
@@ -3542,8 +3700,11 @@
       <c r="S66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3702,11 +3870,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>118500</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,44 +3946,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-251500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-239300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-230300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-220800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-208400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-195600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-186500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-175200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-166500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-157200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-151900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>19</v>
       </c>
@@ -3828,8 +4002,11 @@
       <c r="S72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,44 +4170,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>161700</v>
+      </c>
+      <c r="E76" s="3">
         <v>169400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>102000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>107900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>116300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>63000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>69000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>77700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>82800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>90200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-139400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>19</v>
       </c>
@@ -4040,8 +4226,11 @@
       <c r="S76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4240,7 +4439,7 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -4267,7 +4466,7 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
@@ -4276,10 +4475,13 @@
         <v>300</v>
       </c>
       <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-67800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>7700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-97000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,73 +5305,79 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>73000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>63200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>114500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -5136,89 +5385,95 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>57100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>SIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,271 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E8" s="3">
         <v>20400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
         <v>2200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1600</v>
       </c>
       <c r="K9" s="3">
         <v>1600</v>
       </c>
       <c r="L9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1400</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1200</v>
       </c>
       <c r="O9" s="3">
         <v>1200</v>
       </c>
       <c r="P9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E10" s="3">
         <v>18200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>10000</v>
       </c>
       <c r="S10" s="3">
         <v>10000</v>
       </c>
       <c r="T10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="U10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,64 +950,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E12" s="3">
         <v>3000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1900</v>
       </c>
       <c r="K12" s="3">
         <v>1900</v>
       </c>
       <c r="L12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M12" s="3">
         <v>1700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,26 +1066,29 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1081,8 +1101,8 @@
       <c r="L14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1105,8 +1125,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E17" s="3">
         <v>32000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1314,134 +1347,141 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>400</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
       </c>
       <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>700</v>
       </c>
       <c r="L20" s="3">
         <v>700</v>
       </c>
       <c r="M20" s="3">
+        <v>700</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-10800</v>
+        <v>-13500</v>
       </c>
       <c r="E21" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1100</v>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
       </c>
       <c r="G22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H22" s="3">
         <v>1200</v>
@@ -1459,7 +1499,7 @@
         <v>1200</v>
       </c>
       <c r="M22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N22" s="3">
         <v>1300</v>
@@ -1471,75 +1511,81 @@
         <v>1300</v>
       </c>
       <c r="Q22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="R22" s="3">
         <v>1000</v>
       </c>
       <c r="S22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T22" s="3">
         <v>900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1582,8 +1628,8 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>19</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>19</v>
@@ -1594,8 +1640,11 @@
       <c r="T24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2053,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-400</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
       </c>
       <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-700</v>
       </c>
       <c r="L32" s="3">
         <v>-700</v>
       </c>
       <c r="M32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,47 +2401,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E41" s="3">
         <v>37400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>53600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>66200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>67600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2371,44 +2458,47 @@
       <c r="T41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>128500</v>
+      </c>
+      <c r="E42" s="3">
         <v>147700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>142900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>76000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>71500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>77400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>81300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>83600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>91800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>102700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>97100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>19</v>
       </c>
@@ -2427,47 +2517,50 @@
       <c r="T42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E43" s="3">
         <v>13100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2483,47 +2576,50 @@
       <c r="T43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E44" s="3">
         <v>7400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>19</v>
       </c>
@@ -2539,47 +2635,50 @@
       <c r="T44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E45" s="3">
         <v>2600</v>
       </c>
       <c r="F45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>19</v>
       </c>
@@ -2595,47 +2694,50 @@
       <c r="T45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>199100</v>
+      </c>
+      <c r="E46" s="3">
         <v>208100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>218200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>149500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>154500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>162000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>111500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>112700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>119000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>129400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>136000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>19</v>
       </c>
@@ -2651,16 +2753,19 @@
       <c r="T46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2669,19 +2774,19 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>1300</v>
       </c>
       <c r="J47" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="K47" s="3">
         <v>5300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>19</v>
+      <c r="L47" s="3">
+        <v>5300</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>19</v>
@@ -2695,8 +2800,8 @@
       <c r="P47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2707,47 +2812,50 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E48" s="3">
         <v>7300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4500</v>
       </c>
       <c r="F48" s="3">
         <v>4500</v>
       </c>
       <c r="G48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H48" s="3">
         <v>4400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>19</v>
       </c>
@@ -2763,8 +2871,11 @@
       <c r="T48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2819,8 +2930,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,8 +3048,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2943,7 +3063,7 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2967,11 +3087,11 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
         <v>1500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>19</v>
       </c>
@@ -2987,8 +3107,11 @@
       <c r="T52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,47 +3166,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>207300</v>
+      </c>
+      <c r="E54" s="3">
         <v>215800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>223100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>154300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>159200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>167800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>117000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>121300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>127100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>132100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>138500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>19</v>
       </c>
@@ -3099,8 +3225,11 @@
       <c r="T54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,47 +3273,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>19</v>
       </c>
@@ -3199,16 +3330,19 @@
       <c r="T57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3217,14 +3351,14 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>8700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>19</v>
       </c>
@@ -3237,8 +3371,8 @@
       <c r="N58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3255,47 +3389,50 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E59" s="3">
         <v>8500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>9300</v>
       </c>
       <c r="H59" s="3">
         <v>9300</v>
       </c>
       <c r="I59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J59" s="3">
         <v>11600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>19</v>
       </c>
@@ -3311,47 +3448,50 @@
       <c r="T59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E60" s="3">
         <v>13700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>9900</v>
       </c>
       <c r="L60" s="3">
         <v>9900</v>
       </c>
       <c r="M60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="N60" s="3">
         <v>9000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>19</v>
       </c>
@@ -3367,47 +3507,50 @@
       <c r="T60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39500</v>
+        <v>39600</v>
       </c>
       <c r="E61" s="3">
         <v>39500</v>
       </c>
       <c r="F61" s="3">
+        <v>39500</v>
+      </c>
+      <c r="G61" s="3">
         <v>39400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>34900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>39200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>39000</v>
       </c>
       <c r="M61" s="3">
         <v>39000</v>
       </c>
       <c r="N61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="O61" s="3">
         <v>40000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3423,22 +3566,25 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
@@ -3459,11 +3605,11 @@
         <v>400</v>
       </c>
       <c r="N62" s="3">
+        <v>400</v>
+      </c>
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>19</v>
       </c>
@@ -3479,8 +3625,11 @@
       <c r="T62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,47 +3802,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E66" s="3">
         <v>54100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>52300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>51400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>51500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>19</v>
       </c>
@@ -3703,8 +3861,11 @@
       <c r="T66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3873,11 +4041,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>118500</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,47 +4120,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-265500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-251500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-239300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-230300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-220800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-208400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-195600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-186500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-175200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-166500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-157200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-151900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>19</v>
       </c>
@@ -4005,8 +4179,11 @@
       <c r="T72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,47 +4356,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E76" s="3">
         <v>161700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>169400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>102000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>107900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>116300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>63000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>69000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>77700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>82800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>90200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-139400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>19</v>
       </c>
@@ -4229,8 +4415,11 @@
       <c r="T76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,13 +4622,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -4442,7 +4641,7 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -4469,7 +4668,7 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
@@ -4478,10 +4677,13 @@
         <v>300</v>
       </c>
       <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5058,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-67800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>7700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-97000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,79 +5551,85 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>73000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>63200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>114500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -5388,92 +5637,98 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>57100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>SIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,212 +665,222 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E8" s="3">
         <v>22200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1600</v>
       </c>
       <c r="L9" s="3">
         <v>1600</v>
       </c>
       <c r="M9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N9" s="3">
         <v>1500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1400</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1200</v>
       </c>
       <c r="P9" s="3">
         <v>1200</v>
       </c>
       <c r="Q9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,58 +888,61 @@
         <v>19800</v>
       </c>
       <c r="E10" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F10" s="3">
         <v>18200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10400</v>
-      </c>
-      <c r="S10" s="3">
-        <v>10000</v>
       </c>
       <c r="T10" s="3">
         <v>10000</v>
       </c>
       <c r="U10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="V10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,67 +964,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E12" s="3">
         <v>3100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1900</v>
       </c>
       <c r="L12" s="3">
         <v>1900</v>
       </c>
       <c r="M12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N12" s="3">
         <v>1700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1069,29 +1086,32 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1104,8 +1124,8 @@
       <c r="M14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1128,8 +1148,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1187,8 +1210,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1233,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>36700</v>
+        <v>37300</v>
       </c>
       <c r="E17" s="3">
+        <v>35200</v>
+      </c>
+      <c r="F17" s="3">
         <v>32000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-14500</v>
+        <v>-15000</v>
       </c>
       <c r="E18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1348,134 +1381,141 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-600</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>400</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
       </c>
       <c r="J20" s="3">
+        <v>400</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>700</v>
       </c>
       <c r="M20" s="3">
         <v>700</v>
       </c>
       <c r="N20" s="3">
+        <v>700</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-13500</v>
+        <v>-14400</v>
       </c>
       <c r="E21" s="3">
-        <v>-11900</v>
+        <v>-12400</v>
       </c>
       <c r="F21" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-7600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>19</v>
+      <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1100</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
@@ -1484,7 +1524,7 @@
         <v>1100</v>
       </c>
       <c r="H22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I22" s="3">
         <v>1200</v>
@@ -1502,7 +1542,7 @@
         <v>1200</v>
       </c>
       <c r="N22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="O22" s="3">
         <v>1300</v>
@@ -1514,78 +1554,84 @@
         <v>1300</v>
       </c>
       <c r="R22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="S22" s="3">
         <v>1000</v>
       </c>
       <c r="T22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U22" s="3">
         <v>900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1631,8 +1677,8 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>19</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>19</v>
@@ -1643,8 +1689,11 @@
       <c r="U24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1751,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1937,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1938,8 +1999,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,126 +2123,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>600</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-400</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
       </c>
       <c r="J32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-700</v>
       </c>
       <c r="M32" s="3">
         <v>-700</v>
       </c>
       <c r="N32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2309,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,50 +2488,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E41" s="3">
         <v>48100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>66200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>67600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2461,47 +2548,50 @@
       <c r="U41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E42" s="3">
         <v>128500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>147700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>142900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>76000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>71500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>77400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>81300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>83600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>91800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>102700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>97100</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>19</v>
       </c>
@@ -2520,50 +2610,53 @@
       <c r="U42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E43" s="3">
         <v>11900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2579,50 +2672,53 @@
       <c r="U43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E44" s="3">
         <v>8200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>19</v>
       </c>
@@ -2638,50 +2734,53 @@
       <c r="U44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2600</v>
       </c>
       <c r="F45" s="3">
         <v>2600</v>
       </c>
       <c r="G45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>19</v>
       </c>
@@ -2697,50 +2796,53 @@
       <c r="U45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>185600</v>
+      </c>
+      <c r="E46" s="3">
         <v>199100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>208100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>218200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>149500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>154500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>162000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>111500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>112700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>119000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>129400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>136000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>19</v>
       </c>
@@ -2756,8 +2858,11 @@
       <c r="U46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2767,8 +2872,8 @@
       <c r="E47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2777,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>1300</v>
       </c>
       <c r="K47" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="L47" s="3">
         <v>5300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>19</v>
+      <c r="M47" s="3">
+        <v>5300</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>19</v>
@@ -2803,8 +2908,8 @@
       <c r="Q47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2815,8 +2920,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2824,41 +2932,41 @@
         <v>7900</v>
       </c>
       <c r="E48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F48" s="3">
         <v>7300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4500</v>
       </c>
       <c r="G48" s="3">
         <v>4500</v>
       </c>
       <c r="H48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I48" s="3">
         <v>4400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>19</v>
       </c>
@@ -2874,8 +2982,11 @@
       <c r="U48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2933,8 +3044,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,8 +3168,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3066,7 +3186,7 @@
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -3090,11 +3210,11 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3110,8 +3230,11 @@
       <c r="U52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,50 +3292,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E54" s="3">
         <v>207300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>215800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>223100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>154300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>159200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>167800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>117000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>121300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>127100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>132100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>138500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>19</v>
       </c>
@@ -3228,8 +3354,11 @@
       <c r="U54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,50 +3404,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>19</v>
       </c>
@@ -3333,8 +3464,11 @@
       <c r="U57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3344,8 +3478,8 @@
       <c r="E58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3354,14 +3488,14 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>8700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>19</v>
       </c>
@@ -3374,8 +3508,8 @@
       <c r="O58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3392,50 +3526,53 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E59" s="3">
         <v>8700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>9300</v>
       </c>
       <c r="I59" s="3">
         <v>9300</v>
       </c>
       <c r="J59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K59" s="3">
         <v>11600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>19</v>
       </c>
@@ -3451,50 +3588,53 @@
       <c r="U59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E60" s="3">
         <v>12600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>9900</v>
       </c>
       <c r="M60" s="3">
         <v>9900</v>
       </c>
       <c r="N60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="O60" s="3">
         <v>9000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>19</v>
       </c>
@@ -3510,50 +3650,53 @@
       <c r="U60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E61" s="3">
         <v>39600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>39500</v>
       </c>
       <c r="F61" s="3">
         <v>39500</v>
       </c>
       <c r="G61" s="3">
+        <v>39500</v>
+      </c>
+      <c r="H61" s="3">
         <v>39400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>30600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>34900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39100</v>
-      </c>
-      <c r="M61" s="3">
-        <v>39000</v>
       </c>
       <c r="N61" s="3">
         <v>39000</v>
       </c>
       <c r="O61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="P61" s="3">
         <v>40000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3569,8 +3712,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3578,16 +3724,16 @@
         <v>900</v>
       </c>
       <c r="E62" s="3">
+        <v>900</v>
+      </c>
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -3608,11 +3754,11 @@
         <v>400</v>
       </c>
       <c r="O62" s="3">
+        <v>400</v>
+      </c>
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>19</v>
       </c>
@@ -3628,8 +3774,11 @@
       <c r="U62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,50 +3960,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E66" s="3">
         <v>53100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>52300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>51400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>51500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>54000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>19</v>
       </c>
@@ -3864,8 +4022,11 @@
       <c r="U66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4044,11 +4212,11 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>118500</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4064,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,50 +4294,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-281400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-265500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-251500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-239300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-230300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-220800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-208400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-195600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-186500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-175200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-166500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-157200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-151900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>19</v>
       </c>
@@ -4182,8 +4356,11 @@
       <c r="U72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,50 +4542,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>143600</v>
+      </c>
+      <c r="E76" s="3">
         <v>154200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>161700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>169400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>102000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>107900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>116300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>63000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>69000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>77700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>82800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>90200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-139400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>19</v>
       </c>
@@ -4418,8 +4604,11 @@
       <c r="U76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4666,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,16 +4821,17 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -4644,7 +4843,7 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4671,7 +4870,7 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -4680,10 +4879,13 @@
         <v>300</v>
       </c>
       <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5191,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5279,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5463,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E94" s="3">
         <v>16600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-67800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-97000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5551,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5377,8 +5611,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,85 +5797,91 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>73000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>63200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>114500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -5640,95 +5889,101 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E102" s="3">
         <v>10800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>57100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>SIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,284 +665,296 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E8" s="3">
         <v>22300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E9" s="3">
         <v>2500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1600</v>
       </c>
       <c r="M9" s="3">
         <v>1600</v>
       </c>
       <c r="N9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O9" s="3">
         <v>1500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1200</v>
       </c>
       <c r="Q9" s="3">
         <v>1200</v>
       </c>
       <c r="R9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19800</v>
+        <v>21800</v>
       </c>
       <c r="E10" s="3">
         <v>19800</v>
       </c>
       <c r="F10" s="3">
+        <v>19800</v>
+      </c>
+      <c r="G10" s="3">
         <v>18200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10400</v>
-      </c>
-      <c r="T10" s="3">
-        <v>10000</v>
       </c>
       <c r="U10" s="3">
         <v>10000</v>
       </c>
       <c r="V10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="W10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
         <v>3300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1900</v>
       </c>
       <c r="M12" s="3">
         <v>1900</v>
       </c>
       <c r="N12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1089,32 +1105,35 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1127,8 +1146,8 @@
       <c r="N14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1151,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1213,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E17" s="3">
         <v>37300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1382,140 +1414,147 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>400</v>
       </c>
       <c r="J20" s="3">
         <v>400</v>
       </c>
       <c r="K20" s="3">
+        <v>400</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>700</v>
       </c>
       <c r="N20" s="3">
         <v>700</v>
       </c>
       <c r="O20" s="3">
+        <v>700</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-12400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1100</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
@@ -1527,7 +1566,7 @@
         <v>1100</v>
       </c>
       <c r="I22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J22" s="3">
         <v>1200</v>
@@ -1545,7 +1584,7 @@
         <v>1200</v>
       </c>
       <c r="O22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P22" s="3">
         <v>1300</v>
@@ -1557,81 +1596,87 @@
         <v>1300</v>
       </c>
       <c r="S22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T22" s="3">
         <v>1000</v>
       </c>
       <c r="U22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V22" s="3">
         <v>900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1680,8 +1725,8 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>19</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>19</v>
@@ -1692,8 +1737,11 @@
       <c r="V24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2002,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-400</v>
       </c>
       <c r="J32" s="3">
         <v>-400</v>
       </c>
       <c r="K32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-700</v>
       </c>
       <c r="N32" s="3">
         <v>-700</v>
       </c>
       <c r="O32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,53 +2574,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E41" s="3">
         <v>59900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>53600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>66200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>67600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>25100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2551,50 +2637,53 @@
       <c r="V41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E42" s="3">
         <v>101000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>128500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>147700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>142900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>76000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>71500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>77400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>81300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>83600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>91800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>102700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>97100</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>19</v>
       </c>
@@ -2613,53 +2702,56 @@
       <c r="V42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E43" s="3">
         <v>12600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2675,53 +2767,56 @@
       <c r="V43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E44" s="3">
         <v>10200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>19</v>
       </c>
@@ -2737,53 +2832,56 @@
       <c r="V44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2600</v>
       </c>
       <c r="G45" s="3">
         <v>2600</v>
       </c>
       <c r="H45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>19</v>
       </c>
@@ -2799,53 +2897,56 @@
       <c r="V45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>175900</v>
+      </c>
+      <c r="E46" s="3">
         <v>185600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>199100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>208100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>218200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>149500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>154500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>162000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>111500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>112700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>119000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>129400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>136000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>19</v>
       </c>
@@ -2861,8 +2962,11 @@
       <c r="V46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2875,8 +2979,8 @@
       <c r="F47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2885,19 +2989,19 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>1300</v>
       </c>
       <c r="L47" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="M47" s="3">
         <v>5300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>19</v>
+      <c r="N47" s="3">
+        <v>5300</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>19</v>
@@ -2911,8 +3015,8 @@
       <c r="R47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2923,53 +3027,56 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7900</v>
+        <v>14200</v>
       </c>
       <c r="E48" s="3">
         <v>7900</v>
       </c>
       <c r="F48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G48" s="3">
         <v>7300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>4500</v>
       </c>
       <c r="H48" s="3">
         <v>4500</v>
       </c>
       <c r="I48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J48" s="3">
         <v>4400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>19</v>
       </c>
@@ -2985,8 +3092,11 @@
       <c r="V48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3047,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3189,7 +3308,7 @@
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -3213,11 +3332,11 @@
         <v>300</v>
       </c>
       <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3233,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,53 +3417,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>190500</v>
+      </c>
+      <c r="E54" s="3">
         <v>194000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>207300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>215800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>223100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>154300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>159200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>167800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>117000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>121300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>127100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>132100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>138500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>19</v>
       </c>
@@ -3357,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,53 +3534,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>19</v>
       </c>
@@ -3467,8 +3597,11 @@
       <c r="V57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3481,8 +3614,8 @@
       <c r="F58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3491,14 +3624,14 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>8700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>19</v>
       </c>
@@ -3511,8 +3644,8 @@
       <c r="P58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3529,53 +3662,56 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E59" s="3">
         <v>10400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>9300</v>
       </c>
       <c r="J59" s="3">
         <v>9300</v>
       </c>
       <c r="K59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="L59" s="3">
         <v>11600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>19</v>
       </c>
@@ -3591,53 +3727,56 @@
       <c r="V59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E60" s="3">
         <v>14600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>9900</v>
       </c>
       <c r="N60" s="3">
         <v>9900</v>
       </c>
       <c r="O60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="P60" s="3">
         <v>9000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>19</v>
       </c>
@@ -3653,53 +3792,56 @@
       <c r="V60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E61" s="3">
         <v>34900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>39500</v>
       </c>
       <c r="G61" s="3">
         <v>39500</v>
       </c>
       <c r="H61" s="3">
+        <v>39500</v>
+      </c>
+      <c r="I61" s="3">
         <v>39400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>30600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>39100</v>
-      </c>
-      <c r="N61" s="3">
-        <v>39000</v>
       </c>
       <c r="O61" s="3">
         <v>39000</v>
       </c>
       <c r="P61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>40000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3715,28 +3857,31 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>900</v>
+        <v>4200</v>
       </c>
       <c r="E62" s="3">
         <v>900</v>
       </c>
       <c r="F62" s="3">
+        <v>900</v>
+      </c>
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
@@ -3757,11 +3902,11 @@
         <v>400</v>
       </c>
       <c r="P62" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>19</v>
       </c>
@@ -3777,8 +3922,11 @@
       <c r="V62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,53 +4117,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E66" s="3">
         <v>50300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>52300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>51400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>51500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>48300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>19</v>
       </c>
@@ -4025,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4215,11 +4382,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>118500</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4235,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,53 +4467,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-295800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-281400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-265500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-251500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-239300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-230300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-220800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-208400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-195600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-186500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-175200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-166500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-157200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-151900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>19</v>
       </c>
@@ -4359,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,53 +4727,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>134400</v>
+      </c>
+      <c r="E76" s="3">
         <v>143600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>154200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>161700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>169400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>102000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>107900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>116300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>63000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>69000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>77700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>82800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>90200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-139400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>19</v>
       </c>
@@ -4607,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,19 +5019,20 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -4846,7 +5044,7 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -4873,7 +5071,7 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
@@ -4882,10 +5080,13 @@
         <v>300</v>
       </c>
       <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E94" s="3">
         <v>26800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>16600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-67800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-97000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5614,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,91 +6042,97 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>73000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>63200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>114500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>5500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -5892,98 +6140,104 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E102" s="3">
         <v>11700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>57100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>SIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E8" s="3">
         <v>25200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1600</v>
       </c>
       <c r="N9" s="3">
         <v>1600</v>
       </c>
       <c r="O9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P9" s="3">
         <v>1500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1200</v>
       </c>
       <c r="R9" s="3">
         <v>1200</v>
       </c>
       <c r="S9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T9" s="3">
         <v>1000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E10" s="3">
         <v>21800</v>
-      </c>
-      <c r="E10" s="3">
-        <v>19800</v>
       </c>
       <c r="F10" s="3">
         <v>19800</v>
       </c>
       <c r="G10" s="3">
+        <v>19800</v>
+      </c>
+      <c r="H10" s="3">
         <v>18200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10400</v>
-      </c>
-      <c r="U10" s="3">
-        <v>10000</v>
       </c>
       <c r="V10" s="3">
         <v>10000</v>
       </c>
       <c r="W10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="X10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,73 +991,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E12" s="3">
         <v>3000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1800</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1900</v>
       </c>
       <c r="N12" s="3">
         <v>1900</v>
       </c>
       <c r="O12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P12" s="3">
         <v>1700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,35 +1125,38 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1149,8 +1169,8 @@
       <c r="O14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E17" s="3">
         <v>39200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>30000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1415,8 +1448,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1424,129 +1458,135 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>400</v>
       </c>
       <c r="K20" s="3">
         <v>400</v>
       </c>
       <c r="L20" s="3">
+        <v>400</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>700</v>
       </c>
       <c r="O20" s="3">
         <v>700</v>
       </c>
       <c r="P20" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-5400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1554,10 +1594,10 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1100</v>
       </c>
       <c r="G22" s="3">
         <v>1100</v>
@@ -1569,7 +1609,7 @@
         <v>1100</v>
       </c>
       <c r="J22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K22" s="3">
         <v>1200</v>
@@ -1587,7 +1627,7 @@
         <v>1200</v>
       </c>
       <c r="P22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Q22" s="3">
         <v>1300</v>
@@ -1599,84 +1639,90 @@
         <v>1300</v>
       </c>
       <c r="T22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="U22" s="3">
         <v>1000</v>
       </c>
       <c r="V22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W22" s="3">
         <v>900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1728,8 +1774,8 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>19</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>19</v>
@@ -1740,8 +1786,11 @@
       <c r="W24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +2262,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2204,129 +2274,135 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-400</v>
       </c>
       <c r="K32" s="3">
         <v>-400</v>
       </c>
       <c r="L32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-700</v>
       </c>
       <c r="O32" s="3">
         <v>-700</v>
       </c>
       <c r="P32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,56 +2661,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E41" s="3">
         <v>63400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>59900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>53600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>56000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>66200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2640,53 +2727,56 @@
       <c r="W41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E42" s="3">
         <v>83600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>101000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>128500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>147700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>142900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>76000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>71500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>77400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>81300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>83600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>91800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>102700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>97100</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>19</v>
       </c>
@@ -2705,56 +2795,59 @@
       <c r="W42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E43" s="3">
         <v>14200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2770,56 +2863,59 @@
       <c r="W43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E44" s="3">
         <v>11500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>19</v>
       </c>
@@ -2835,8 +2931,11 @@
       <c r="W44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2844,47 +2943,47 @@
         <v>3100</v>
       </c>
       <c r="E45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2600</v>
       </c>
       <c r="H45" s="3">
         <v>2600</v>
       </c>
       <c r="I45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>19</v>
       </c>
@@ -2900,56 +2999,59 @@
       <c r="W45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E46" s="3">
         <v>175900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>185600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>199100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>208100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>218200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>149500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>154500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>162000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>111500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>112700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>119000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>129400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>136000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>19</v>
       </c>
@@ -2965,22 +3067,25 @@
       <c r="W46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>19</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2992,19 +3097,19 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>1300</v>
       </c>
       <c r="M47" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="N47" s="3">
         <v>5300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>19</v>
+      <c r="O47" s="3">
+        <v>5300</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>19</v>
@@ -3018,8 +3123,8 @@
       <c r="S47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3030,56 +3135,59 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E48" s="3">
         <v>14200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>7900</v>
       </c>
       <c r="F48" s="3">
         <v>7900</v>
       </c>
       <c r="G48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H48" s="3">
         <v>7300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4500</v>
       </c>
       <c r="I48" s="3">
         <v>4500</v>
       </c>
       <c r="J48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>19</v>
       </c>
@@ -3095,8 +3203,11 @@
       <c r="W48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3271,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3407,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3311,7 +3431,7 @@
         <v>400</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -3335,11 +3455,11 @@
         <v>300</v>
       </c>
       <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
         <v>1500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3355,8 +3475,11 @@
       <c r="W52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,56 +3543,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>176800</v>
+      </c>
+      <c r="E54" s="3">
         <v>190500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>194000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>207300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>215800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>223100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>154300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>159200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>167800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>117000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>127100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>132100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>138500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>19</v>
       </c>
@@ -3485,8 +3611,11 @@
       <c r="W54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,56 +3665,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>19</v>
       </c>
@@ -3600,22 +3731,25 @@
       <c r="W57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>19</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3627,14 +3761,14 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>8700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>19</v>
       </c>
@@ -3647,8 +3781,8 @@
       <c r="Q58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3665,56 +3799,59 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E59" s="3">
         <v>13700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>9300</v>
       </c>
       <c r="K59" s="3">
         <v>9300</v>
       </c>
       <c r="L59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="M59" s="3">
         <v>11600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>19</v>
       </c>
@@ -3730,56 +3867,59 @@
       <c r="W59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E60" s="3">
         <v>16900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>9900</v>
       </c>
       <c r="O60" s="3">
         <v>9900</v>
       </c>
       <c r="P60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="Q60" s="3">
         <v>9000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>19</v>
       </c>
@@ -3795,8 +3935,11 @@
       <c r="W60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3804,47 +3947,47 @@
         <v>35000</v>
       </c>
       <c r="E61" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F61" s="3">
         <v>34900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>39500</v>
       </c>
       <c r="H61" s="3">
         <v>39500</v>
       </c>
       <c r="I61" s="3">
+        <v>39500</v>
+      </c>
+      <c r="J61" s="3">
         <v>39400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>39300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>39200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>39100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>39000</v>
       </c>
       <c r="P61" s="3">
         <v>39000</v>
       </c>
       <c r="Q61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="R61" s="3">
         <v>40000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3860,31 +4003,34 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E62" s="3">
         <v>4200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>900</v>
       </c>
       <c r="F62" s="3">
         <v>900</v>
       </c>
       <c r="G62" s="3">
+        <v>900</v>
+      </c>
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
@@ -3905,11 +4051,11 @@
         <v>400</v>
       </c>
       <c r="Q62" s="3">
+        <v>400</v>
+      </c>
+      <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>19</v>
       </c>
@@ -3925,8 +4071,11 @@
       <c r="W62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,56 +4275,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E66" s="3">
         <v>56100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>50300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>53800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>52300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>51400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>51500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>54000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>48300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>49300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>19</v>
       </c>
@@ -4185,8 +4343,11 @@
       <c r="W66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4385,11 +4553,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>118500</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,56 +4641,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-313300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-295800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-281400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-265500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-251500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-239300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-230300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-220800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-208400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-195600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-186500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-175200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-166500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-157200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-151900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>19</v>
       </c>
@@ -4535,8 +4709,11 @@
       <c r="W72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,56 +4913,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E76" s="3">
         <v>134400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>143600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>154200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>161700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>169400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>102000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>107900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>116300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>63000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>69000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>77700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>82800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>90200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-139400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>19</v>
       </c>
@@ -4795,8 +4981,11 @@
       <c r="W76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5029,13 +5228,13 @@
         <v>700</v>
       </c>
       <c r="E83" s="3">
+        <v>700</v>
+      </c>
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -5047,7 +5246,7 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -5074,7 +5273,7 @@
         <v>200</v>
       </c>
       <c r="T83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>300</v>
@@ -5083,10 +5282,13 @@
         <v>300</v>
       </c>
       <c r="W83" s="3">
+        <v>300</v>
+      </c>
+      <c r="X83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E94" s="3">
         <v>15400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>26800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>16600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-67800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-97000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6288,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>73000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>63200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>114500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>5500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6119,23 +6368,23 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -6143,101 +6392,107 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E102" s="3">
         <v>3600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-16200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>57100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>SIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,322 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E8" s="3">
         <v>22400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>25200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E9" s="3">
         <v>3000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1600</v>
       </c>
       <c r="O9" s="3">
         <v>1600</v>
       </c>
       <c r="P9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1400</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1200</v>
       </c>
       <c r="S9" s="3">
         <v>1200</v>
       </c>
       <c r="T9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U9" s="3">
         <v>1000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E10" s="3">
         <v>19400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>19800</v>
       </c>
       <c r="G10" s="3">
         <v>19800</v>
       </c>
       <c r="H10" s="3">
+        <v>19800</v>
+      </c>
+      <c r="I10" s="3">
         <v>18200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>10400</v>
-      </c>
-      <c r="V10" s="3">
-        <v>10000</v>
       </c>
       <c r="W10" s="3">
         <v>10000</v>
       </c>
       <c r="X10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Y10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,76 +1005,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E12" s="3">
         <v>3600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1800</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1900</v>
       </c>
       <c r="O12" s="3">
         <v>1900</v>
       </c>
       <c r="P12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1128,38 +1145,41 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1172,8 +1192,8 @@
       <c r="P14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1196,8 +1216,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1264,8 +1287,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1313,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E17" s="3">
         <v>39300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>39200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-16900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1449,144 +1482,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>400</v>
       </c>
       <c r="L20" s="3">
         <v>400</v>
       </c>
       <c r="M20" s="3">
+        <v>400</v>
+      </c>
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>700</v>
       </c>
       <c r="P20" s="3">
         <v>700</v>
       </c>
       <c r="Q20" s="3">
+        <v>700</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-16100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-5400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1597,10 +1637,10 @@
         <v>600</v>
       </c>
       <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
         <v>900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1100</v>
       </c>
       <c r="H22" s="3">
         <v>1100</v>
@@ -1612,7 +1652,7 @@
         <v>1100</v>
       </c>
       <c r="K22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="L22" s="3">
         <v>1200</v>
@@ -1630,7 +1670,7 @@
         <v>1200</v>
       </c>
       <c r="Q22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="R22" s="3">
         <v>1300</v>
@@ -1642,87 +1682,93 @@
         <v>1300</v>
       </c>
       <c r="U22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="V22" s="3">
         <v>1000</v>
       </c>
       <c r="W22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X22" s="3">
         <v>900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-6600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1777,8 +1823,8 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>19</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>19</v>
@@ -1789,8 +1835,11 @@
       <c r="X24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1906,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-6600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2190,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,144 +2332,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-400</v>
       </c>
       <c r="L32" s="3">
         <v>-400</v>
       </c>
       <c r="M32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-700</v>
       </c>
       <c r="P32" s="3">
         <v>-700</v>
       </c>
       <c r="Q32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2545,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,59 +2748,60 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E41" s="3">
         <v>27300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>63400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>59900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>53600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>56000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>66200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2730,56 +2817,59 @@
       <c r="X41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E42" s="3">
         <v>103400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>83600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>101000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>128500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>147700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>142900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>76000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>71500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>77400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>81300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>83600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>91800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>102700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>97100</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>19</v>
       </c>
@@ -2798,59 +2888,62 @@
       <c r="X42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E43" s="3">
         <v>12700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2866,59 +2959,62 @@
       <c r="X43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E44" s="3">
         <v>14700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3000</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>19</v>
       </c>
@@ -2934,59 +3030,62 @@
       <c r="X44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3100</v>
+        <v>2300</v>
       </c>
       <c r="E45" s="3">
         <v>3100</v>
       </c>
       <c r="F45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2600</v>
       </c>
       <c r="I45" s="3">
         <v>2600</v>
       </c>
       <c r="J45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>19</v>
       </c>
@@ -3002,59 +3101,62 @@
       <c r="X45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>148300</v>
+      </c>
+      <c r="E46" s="3">
         <v>161300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>175900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>185600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>199100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>208100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>218200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>149500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>154500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>162000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>111500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>112700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>119000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>129400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>136000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>24900</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>19</v>
       </c>
@@ -3070,8 +3172,11 @@
       <c r="X46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3100,19 +3205,19 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>1300</v>
       </c>
       <c r="N47" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="O47" s="3">
         <v>5300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>19</v>
+      <c r="P47" s="3">
+        <v>5300</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>19</v>
@@ -3126,8 +3231,8 @@
       <c r="T47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3138,59 +3243,62 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E48" s="3">
         <v>15200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>7900</v>
       </c>
       <c r="G48" s="3">
         <v>7900</v>
       </c>
       <c r="H48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I48" s="3">
         <v>7300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4500</v>
       </c>
       <c r="J48" s="3">
         <v>4500</v>
       </c>
       <c r="K48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L48" s="3">
         <v>4400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>19</v>
       </c>
@@ -3206,8 +3314,11 @@
       <c r="X48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3274,8 +3385,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3527,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3434,7 +3554,7 @@
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -3458,11 +3578,11 @@
         <v>300</v>
       </c>
       <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
         <v>1500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3478,8 +3598,11 @@
       <c r="X52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,59 +3669,62 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>166100</v>
+      </c>
+      <c r="E54" s="3">
         <v>176800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>190500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>194000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>207300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>215800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>223100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>154300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>159200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>167800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>117000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>121300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>127100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>132100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>138500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>19</v>
       </c>
@@ -3614,8 +3740,11 @@
       <c r="X54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,59 +3796,60 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>19</v>
       </c>
@@ -3734,8 +3865,11 @@
       <c r="X57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3764,14 +3898,14 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>8700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>19</v>
       </c>
@@ -3784,8 +3918,8 @@
       <c r="R58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3802,59 +3936,62 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E59" s="3">
         <v>10500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>9300</v>
       </c>
       <c r="L59" s="3">
         <v>9300</v>
       </c>
       <c r="M59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="N59" s="3">
         <v>11600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>19</v>
       </c>
@@ -3870,59 +4007,62 @@
       <c r="X59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E60" s="3">
         <v>15500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>9900</v>
       </c>
       <c r="P60" s="3">
         <v>9900</v>
       </c>
       <c r="Q60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="R60" s="3">
         <v>9000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8900</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>19</v>
       </c>
@@ -3938,59 +4078,62 @@
       <c r="X60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>35000</v>
+        <v>35100</v>
       </c>
       <c r="E61" s="3">
         <v>35000</v>
       </c>
       <c r="F61" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G61" s="3">
         <v>34900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>39500</v>
       </c>
       <c r="I61" s="3">
         <v>39500</v>
       </c>
       <c r="J61" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K61" s="3">
         <v>39400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>39200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>39100</v>
-      </c>
-      <c r="P61" s="3">
-        <v>39000</v>
       </c>
       <c r="Q61" s="3">
         <v>39000</v>
       </c>
       <c r="R61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="S61" s="3">
         <v>40000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4006,34 +4149,37 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E62" s="3">
         <v>3900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>900</v>
       </c>
       <c r="G62" s="3">
         <v>900</v>
       </c>
       <c r="H62" s="3">
+        <v>900</v>
+      </c>
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
@@ -4054,11 +4200,11 @@
         <v>400</v>
       </c>
       <c r="R62" s="3">
+        <v>400</v>
+      </c>
+      <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>19</v>
       </c>
@@ -4074,8 +4220,11 @@
       <c r="X62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,59 +4433,62 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E66" s="3">
         <v>54400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>53800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>51400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>49300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>19</v>
       </c>
@@ -4346,8 +4504,11 @@
       <c r="X66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4556,11 +4724,11 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>118500</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,59 +4815,62 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-331800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-313300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-295800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-281400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-265500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-251500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-239300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-230300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-220800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-208400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-195600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-186500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-175200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-166500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-157200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-151900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>19</v>
       </c>
@@ -4712,8 +4886,11 @@
       <c r="X72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,59 +5099,62 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E76" s="3">
         <v>122400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>134400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>143600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>154200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>161700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>169400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>102000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>107900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>116300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>63000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>69000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>77700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>82800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>90200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-139400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>19</v>
       </c>
@@ -4984,8 +5170,11 @@
       <c r="X76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5241,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,25 +5417,26 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
         <v>700</v>
       </c>
       <c r="F83" s="3">
+        <v>700</v>
+      </c>
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -5249,7 +5448,7 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -5276,7 +5475,7 @@
         <v>200</v>
       </c>
       <c r="U83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>300</v>
@@ -5285,10 +5484,13 @@
         <v>300</v>
       </c>
       <c r="X83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5841,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5941,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6152,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>15400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>26800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>16600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-67800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-97000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6321,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,103 +6534,109 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>73000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>63200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>114500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -6395,104 +6644,110 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>57100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>SIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,322 +665,335 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E8" s="3">
         <v>25600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E9" s="3">
         <v>3500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1600</v>
       </c>
       <c r="P9" s="3">
         <v>1600</v>
       </c>
       <c r="Q9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R9" s="3">
         <v>1500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1400</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1200</v>
       </c>
       <c r="T9" s="3">
         <v>1200</v>
       </c>
       <c r="U9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V9" s="3">
         <v>1000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E10" s="3">
         <v>22100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>19800</v>
       </c>
       <c r="H10" s="3">
         <v>19800</v>
       </c>
       <c r="I10" s="3">
+        <v>19800</v>
+      </c>
+      <c r="J10" s="3">
         <v>18200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>10400</v>
-      </c>
-      <c r="W10" s="3">
-        <v>10000</v>
       </c>
       <c r="X10" s="3">
         <v>10000</v>
       </c>
       <c r="Y10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Z10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,79 +1019,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E12" s="3">
         <v>3500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1800</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1900</v>
       </c>
       <c r="P12" s="3">
         <v>1900</v>
       </c>
       <c r="Q12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1148,8 +1165,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1159,30 +1179,30 @@
       <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1195,8 +1215,8 @@
       <c r="Q14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1219,8 +1239,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1290,8 +1313,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,150 +1340,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E17" s="3">
         <v>43500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>39300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>39200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1483,155 +1516,162 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>400</v>
       </c>
       <c r="M20" s="3">
         <v>400</v>
       </c>
       <c r="N20" s="3">
+        <v>400</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>700</v>
       </c>
       <c r="Q20" s="3">
         <v>700</v>
       </c>
       <c r="R20" s="3">
+        <v>700</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-16100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
@@ -1640,10 +1680,10 @@
         <v>600</v>
       </c>
       <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
         <v>900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1100</v>
       </c>
       <c r="I22" s="3">
         <v>1100</v>
@@ -1655,7 +1695,7 @@
         <v>1100</v>
       </c>
       <c r="L22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M22" s="3">
         <v>1200</v>
@@ -1673,7 +1713,7 @@
         <v>1200</v>
       </c>
       <c r="R22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="S22" s="3">
         <v>1300</v>
@@ -1685,90 +1725,96 @@
         <v>1300</v>
       </c>
       <c r="V22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="W22" s="3">
         <v>1000</v>
       </c>
       <c r="X22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1826,8 +1872,8 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>19</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>19</v>
@@ -1838,8 +1884,11 @@
       <c r="Y24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,150 +1958,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2180,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,8 +2254,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2328,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,150 +2402,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-400</v>
       </c>
       <c r="M32" s="3">
         <v>-400</v>
       </c>
       <c r="N32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-700</v>
       </c>
       <c r="Q32" s="3">
         <v>-700</v>
       </c>
       <c r="R32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,155 +2624,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2807,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,62 +2835,63 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E41" s="3">
         <v>24300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>63400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>59900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>53600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>66200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2820,59 +2907,62 @@
       <c r="Y41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E42" s="3">
         <v>90100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>103400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>83600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>101000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>128500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>147700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>142900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>76000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>71500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>77400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>81300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>83600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>91800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>102700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>97100</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>19</v>
       </c>
@@ -2891,62 +2981,65 @@
       <c r="Y42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E43" s="3">
         <v>15100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2962,62 +3055,65 @@
       <c r="Y43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E44" s="3">
         <v>16500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>14700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3000</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>19</v>
       </c>
@@ -3033,62 +3129,65 @@
       <c r="Y44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3100</v>
       </c>
       <c r="F45" s="3">
         <v>3100</v>
       </c>
       <c r="G45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2600</v>
       </c>
       <c r="J45" s="3">
         <v>2600</v>
       </c>
       <c r="K45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>19</v>
       </c>
@@ -3104,62 +3203,65 @@
       <c r="Y45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>139200</v>
+      </c>
+      <c r="E46" s="3">
         <v>148300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>161300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>175900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>185600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>199100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>208100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>218200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>149500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>154500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>162000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>111500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>112700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>119000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>129400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>136000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>24900</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>19</v>
       </c>
@@ -3175,8 +3277,11 @@
       <c r="Y46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3208,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>1300</v>
       </c>
       <c r="O47" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="P47" s="3">
         <v>5300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>19</v>
+      <c r="Q47" s="3">
+        <v>5300</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>19</v>
@@ -3234,8 +3339,8 @@
       <c r="U47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3246,62 +3351,65 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E48" s="3">
         <v>17400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7900</v>
       </c>
       <c r="H48" s="3">
         <v>7900</v>
       </c>
       <c r="I48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J48" s="3">
         <v>7300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>4500</v>
       </c>
       <c r="K48" s="3">
         <v>4500</v>
       </c>
       <c r="L48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M48" s="3">
         <v>4400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>19</v>
       </c>
@@ -3317,8 +3425,11 @@
       <c r="Y48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3388,8 +3499,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3573,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,8 +3647,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3557,7 +3677,7 @@
         <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -3581,11 +3701,11 @@
         <v>300</v>
       </c>
       <c r="S52" s="3">
+        <v>300</v>
+      </c>
+      <c r="T52" s="3">
         <v>1500</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3601,8 +3721,11 @@
       <c r="Y52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,62 +3795,65 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E54" s="3">
         <v>166100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>176800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>190500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>194000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>207300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>215800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>223100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>154300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>159200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>167800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>117000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>121300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>127100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>132100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>138500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>19</v>
       </c>
@@ -3743,8 +3869,11 @@
       <c r="Y54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +3899,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,62 +3927,63 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>19</v>
       </c>
@@ -3868,31 +3999,34 @@
       <c r="Y57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3901,14 +4035,14 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>8700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>19</v>
       </c>
@@ -3921,8 +4055,8 @@
       <c r="S58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3939,62 +4073,65 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E59" s="3">
         <v>11500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>9300</v>
       </c>
       <c r="M59" s="3">
         <v>9300</v>
       </c>
       <c r="N59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="O59" s="3">
         <v>11600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>19</v>
       </c>
@@ -4010,62 +4147,65 @@
       <c r="Y59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E60" s="3">
         <v>16700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>9900</v>
       </c>
       <c r="Q60" s="3">
         <v>9900</v>
       </c>
       <c r="R60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="S60" s="3">
         <v>9000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8900</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>19</v>
       </c>
@@ -4081,62 +4221,65 @@
       <c r="Y60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E61" s="3">
         <v>35100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>35000</v>
       </c>
       <c r="F61" s="3">
         <v>35000</v>
       </c>
       <c r="G61" s="3">
+        <v>35000</v>
+      </c>
+      <c r="H61" s="3">
         <v>34900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>39500</v>
       </c>
       <c r="J61" s="3">
         <v>39500</v>
       </c>
       <c r="K61" s="3">
+        <v>39500</v>
+      </c>
+      <c r="L61" s="3">
         <v>39400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>39200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>39100</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>39000</v>
       </c>
       <c r="R61" s="3">
         <v>39000</v>
       </c>
       <c r="S61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="T61" s="3">
         <v>40000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4152,37 +4295,40 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
         <v>3600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>900</v>
       </c>
       <c r="H62" s="3">
         <v>900</v>
       </c>
       <c r="I62" s="3">
+        <v>900</v>
+      </c>
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>400</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
@@ -4203,11 +4349,11 @@
         <v>400</v>
       </c>
       <c r="S62" s="3">
+        <v>400</v>
+      </c>
+      <c r="T62" s="3">
         <v>300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>19</v>
       </c>
@@ -4223,8 +4369,11 @@
       <c r="Y62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4443,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4517,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,62 +4591,65 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E66" s="3">
         <v>55300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>50300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>53100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>53800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>49300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>48300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>49300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>19</v>
       </c>
@@ -4507,8 +4665,11 @@
       <c r="Y66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4695,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4767,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +4841,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4727,11 +4895,11 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>118500</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4747,8 +4915,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,62 +4989,65 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-345900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-331800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-313300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-295800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-281400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-265500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-251500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-239300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-230300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-220800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-208400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-195600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-186500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-175200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-166500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-157200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-151900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>19</v>
       </c>
@@ -4889,8 +5063,11 @@
       <c r="Y72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5137,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5211,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,62 +5285,65 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E76" s="3">
         <v>110800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>122400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>134400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>143600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>154200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>161700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>169400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>102000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>107900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>116300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>63000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>69000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>77700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>82800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>90200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-139400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>19</v>
       </c>
@@ -5173,8 +5359,11 @@
       <c r="Y76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,155 +5433,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,28 +5616,29 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>700</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
       </c>
       <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -5451,7 +5650,7 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -5478,7 +5677,7 @@
         <v>200</v>
       </c>
       <c r="V83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>300</v>
@@ -5487,10 +5686,13 @@
         <v>300</v>
       </c>
       <c r="Y83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5762,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +5836,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +5910,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +5984,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,79 +6058,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,79 +6162,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6308,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,79 +6382,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E94" s="3">
         <v>11000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>15400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>26800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>16600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-67800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-97000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,8 +6486,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6324,8 +6558,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6632,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6706,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,109 +6780,115 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>73000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>63200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>114500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>5500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -6647,107 +6896,113 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-36100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>57100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,335 +665,347 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E8" s="3">
         <v>26400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>25600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E9" s="3">
         <v>4200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1600</v>
       </c>
       <c r="Q9" s="3">
         <v>1600</v>
       </c>
       <c r="R9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S9" s="3">
         <v>1500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1400</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1200</v>
       </c>
       <c r="U9" s="3">
         <v>1200</v>
       </c>
       <c r="V9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W9" s="3">
         <v>1000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E10" s="3">
         <v>22200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>19800</v>
       </c>
       <c r="I10" s="3">
         <v>19800</v>
       </c>
       <c r="J10" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K10" s="3">
         <v>18200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>14200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>12500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>10400</v>
-      </c>
-      <c r="X10" s="3">
-        <v>10000</v>
       </c>
       <c r="Y10" s="3">
         <v>10000</v>
       </c>
       <c r="Z10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AA10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,82 +1032,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E12" s="3">
         <v>3100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1800</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1900</v>
       </c>
       <c r="Q12" s="3">
         <v>1900</v>
       </c>
       <c r="R12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S12" s="3">
         <v>1700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1168,13 +1184,16 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
+      <c r="D14" s="3">
+        <v>700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>19</v>
@@ -1182,30 +1201,30 @@
       <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1218,8 +1237,8 @@
       <c r="R14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1242,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1316,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1341,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E17" s="3">
         <v>40000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>39300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>16200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>17000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-17900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1517,164 +1549,171 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>400</v>
       </c>
       <c r="N20" s="3">
         <v>400</v>
       </c>
       <c r="O20" s="3">
+        <v>400</v>
+      </c>
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>700</v>
       </c>
       <c r="R20" s="3">
         <v>700</v>
       </c>
       <c r="S20" s="3">
+        <v>700</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-12500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-17100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
-      </c>
-      <c r="E22" s="3">
-        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
@@ -1683,10 +1722,10 @@
         <v>600</v>
       </c>
       <c r="H22" s="3">
+        <v>600</v>
+      </c>
+      <c r="I22" s="3">
         <v>900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1100</v>
       </c>
       <c r="J22" s="3">
         <v>1100</v>
@@ -1698,7 +1737,7 @@
         <v>1100</v>
       </c>
       <c r="M22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="N22" s="3">
         <v>1200</v>
@@ -1716,7 +1755,7 @@
         <v>1200</v>
       </c>
       <c r="S22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T22" s="3">
         <v>1300</v>
@@ -1728,93 +1767,99 @@
         <v>1300</v>
       </c>
       <c r="W22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="X22" s="3">
         <v>1000</v>
       </c>
       <c r="Y22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1875,8 +1920,8 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>19</v>
+      <c r="W24" s="3">
+        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>19</v>
@@ -1887,8 +1932,11 @@
       <c r="Z24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2257,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2331,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2405,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-400</v>
       </c>
       <c r="N32" s="3">
         <v>-400</v>
       </c>
       <c r="O32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-700</v>
       </c>
       <c r="R32" s="3">
         <v>-700</v>
       </c>
       <c r="S32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2627,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2808,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2836,65 +2921,66 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E41" s="3">
         <v>26300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>63400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>59900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>53600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>56000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>66200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>67600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2910,62 +2996,65 @@
       <c r="Z41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E42" s="3">
         <v>77800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>90100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>103400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>83600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>101000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>128500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>147700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>142900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>76000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>71500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>77400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>81300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>83600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>91800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>102700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>97100</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>19</v>
       </c>
@@ -2984,65 +3073,68 @@
       <c r="Z42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E43" s="3">
         <v>16500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>19</v>
       </c>
@@ -3058,65 +3150,68 @@
       <c r="Z43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E44" s="3">
         <v>16900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3000</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>19</v>
       </c>
@@ -3132,65 +3227,68 @@
       <c r="Z44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3100</v>
       </c>
       <c r="G45" s="3">
         <v>3100</v>
       </c>
       <c r="H45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2600</v>
       </c>
       <c r="K45" s="3">
         <v>2600</v>
       </c>
       <c r="L45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>19</v>
       </c>
@@ -3206,65 +3304,68 @@
       <c r="Z45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>137600</v>
+      </c>
+      <c r="E46" s="3">
         <v>139200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>148300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>161300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>175900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>185600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>199100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>208100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>218200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>149500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>154500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>162000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>111500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>112700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>119000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>129400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>136000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>24900</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3381,11 @@
       <c r="Z46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3316,19 +3420,19 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>1300</v>
       </c>
       <c r="P47" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="Q47" s="3">
         <v>5300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>19</v>
+      <c r="R47" s="3">
+        <v>5300</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>19</v>
@@ -3342,8 +3446,8 @@
       <c r="V47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3354,65 +3458,68 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E48" s="3">
         <v>18700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>7900</v>
       </c>
       <c r="I48" s="3">
         <v>7900</v>
       </c>
       <c r="J48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K48" s="3">
         <v>7300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>4500</v>
       </c>
       <c r="L48" s="3">
         <v>4500</v>
       </c>
       <c r="M48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N48" s="3">
         <v>4400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>19</v>
       </c>
@@ -3428,8 +3535,11 @@
       <c r="Z48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3502,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3576,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3650,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3680,7 +3799,7 @@
         <v>400</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -3704,11 +3823,11 @@
         <v>300</v>
       </c>
       <c r="T52" s="3">
+        <v>300</v>
+      </c>
+      <c r="U52" s="3">
         <v>1500</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3724,8 +3843,11 @@
       <c r="Z52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3798,65 +3920,68 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>157600</v>
+      </c>
+      <c r="E54" s="3">
         <v>158300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>166100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>176800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>190500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>194000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>207300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>215800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>223100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>154300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>159200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>167800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>117000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>121300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>127100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>132100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>138500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>19</v>
       </c>
@@ -3872,8 +3997,11 @@
       <c r="Z54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3900,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3928,65 +4057,66 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>19</v>
       </c>
@@ -4002,19 +4132,22 @@
       <c r="Z57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>19</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>19</v>
@@ -4028,8 +4161,8 @@
       <c r="J58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -4038,14 +4171,14 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>8700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>19</v>
       </c>
@@ -4058,8 +4191,8 @@
       <c r="T58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4076,65 +4209,68 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E59" s="3">
         <v>12500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>9300</v>
       </c>
       <c r="N59" s="3">
         <v>9300</v>
       </c>
       <c r="O59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="P59" s="3">
         <v>11600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>19</v>
       </c>
@@ -4150,65 +4286,68 @@
       <c r="Z59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E60" s="3">
         <v>18600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>9900</v>
       </c>
       <c r="R60" s="3">
         <v>9900</v>
       </c>
       <c r="S60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="T60" s="3">
         <v>9000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8900</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>19</v>
       </c>
@@ -4224,65 +4363,68 @@
       <c r="Z60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E61" s="3">
         <v>33700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>35000</v>
       </c>
       <c r="G61" s="3">
         <v>35000</v>
       </c>
       <c r="H61" s="3">
+        <v>35000</v>
+      </c>
+      <c r="I61" s="3">
         <v>34900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>39500</v>
       </c>
       <c r="K61" s="3">
         <v>39500</v>
       </c>
       <c r="L61" s="3">
+        <v>39500</v>
+      </c>
+      <c r="M61" s="3">
         <v>39400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>39300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>39200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>39100</v>
-      </c>
-      <c r="R61" s="3">
-        <v>39000</v>
       </c>
       <c r="S61" s="3">
         <v>39000</v>
       </c>
       <c r="T61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="U61" s="3">
         <v>40000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4298,40 +4440,43 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
         <v>3200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>900</v>
       </c>
       <c r="I62" s="3">
         <v>900</v>
       </c>
       <c r="J62" s="3">
+        <v>900</v>
+      </c>
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>400</v>
       </c>
       <c r="N62" s="3">
         <v>400</v>
@@ -4352,11 +4497,11 @@
         <v>400</v>
       </c>
       <c r="T62" s="3">
+        <v>400</v>
+      </c>
+      <c r="U62" s="3">
         <v>300</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>19</v>
       </c>
@@ -4372,8 +4517,11 @@
       <c r="Z62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4446,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4520,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4594,65 +4748,68 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E66" s="3">
         <v>55400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>50300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>53100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>54100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>53800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>51500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>54000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>49400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>49300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49300</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>19</v>
       </c>
@@ -4668,8 +4825,11 @@
       <c r="Z66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4696,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4770,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4844,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4898,11 +5065,11 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>118500</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4918,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4992,65 +5162,68 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-357100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-345900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-331800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-313300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-295800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-281400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-265500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-251500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-239300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-230300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-220800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-208400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-195600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-186500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-175200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-166500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-157200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-151900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>19</v>
       </c>
@@ -5066,8 +5239,11 @@
       <c r="Z72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5140,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5214,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5288,65 +5470,68 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E76" s="3">
         <v>102800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>110800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>122400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>134400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>143600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>154200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>161700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>169400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>102000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>107900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>116300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>63000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>69000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>77700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>82800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>90200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-139400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>19</v>
       </c>
@@ -5362,8 +5547,11 @@
       <c r="Z76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5436,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5617,31 +5814,32 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>700</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
       </c>
       <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -5653,7 +5851,7 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -5680,7 +5878,7 @@
         <v>200</v>
       </c>
       <c r="W83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X83" s="3">
         <v>300</v>
@@ -5689,10 +5887,13 @@
         <v>300</v>
       </c>
       <c r="Z83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5765,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5839,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5913,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5987,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6061,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6163,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6311,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6385,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>8700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>11000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>15400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>26800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>16600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-67800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-97000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6487,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6561,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6635,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6709,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6783,115 +7025,121 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>73000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>63200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>114500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>5500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -6899,110 +7147,116 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-36100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-16200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>57100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-12600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>SIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,360 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E8" s="3">
         <v>32000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>25200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>13700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E9" s="3">
         <v>5100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1600</v>
       </c>
       <c r="R9" s="3">
         <v>1600</v>
       </c>
       <c r="S9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T9" s="3">
         <v>1500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1400</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1200</v>
       </c>
       <c r="V9" s="3">
         <v>1200</v>
       </c>
       <c r="W9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X9" s="3">
         <v>1000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E10" s="3">
         <v>26900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>19800</v>
       </c>
       <c r="J10" s="3">
         <v>19800</v>
       </c>
       <c r="K10" s="3">
+        <v>19800</v>
+      </c>
+      <c r="L10" s="3">
         <v>18200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>13500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>14200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>12200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>12500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>11700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>10400</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>10000</v>
       </c>
       <c r="Z10" s="3">
         <v>10000</v>
       </c>
       <c r="AA10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AB10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,85 +1046,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E12" s="3">
         <v>3500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1900</v>
       </c>
       <c r="R12" s="3">
         <v>1900</v>
       </c>
       <c r="S12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1187,47 +1204,50 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1240,8 +1260,8 @@
       <c r="S14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1264,8 +1284,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E17" s="3">
         <v>43900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>16700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>16200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>17000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1550,8 +1583,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1559,164 +1593,170 @@
         <v>1000</v>
       </c>
       <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>400</v>
       </c>
       <c r="O20" s="3">
         <v>400</v>
       </c>
       <c r="P20" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
-      </c>
-      <c r="R20" s="3">
-        <v>700</v>
       </c>
       <c r="S20" s="3">
         <v>700</v>
       </c>
       <c r="T20" s="3">
+        <v>700</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-12500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>600</v>
       </c>
       <c r="G22" s="3">
         <v>600</v>
@@ -1725,10 +1765,10 @@
         <v>600</v>
       </c>
       <c r="I22" s="3">
+        <v>600</v>
+      </c>
+      <c r="J22" s="3">
         <v>900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1100</v>
       </c>
       <c r="K22" s="3">
         <v>1100</v>
@@ -1740,7 +1780,7 @@
         <v>1100</v>
       </c>
       <c r="N22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O22" s="3">
         <v>1200</v>
@@ -1758,7 +1798,7 @@
         <v>1200</v>
       </c>
       <c r="T22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="U22" s="3">
         <v>1300</v>
@@ -1770,96 +1810,102 @@
         <v>1300</v>
       </c>
       <c r="X22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Y22" s="3">
         <v>1000</v>
       </c>
       <c r="Z22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-6600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1923,8 +1969,8 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>19</v>
+      <c r="X24" s="3">
+        <v>0</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>19</v>
@@ -1935,8 +1981,11 @@
       <c r="AA24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-6600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-6600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,8 +2541,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2483,153 +2553,159 @@
         <v>-1000</v>
       </c>
       <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-400</v>
       </c>
       <c r="O32" s="3">
         <v>-400</v>
       </c>
       <c r="P32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-700</v>
       </c>
       <c r="S32" s="3">
         <v>-700</v>
       </c>
       <c r="T32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-6600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-6600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,68 +3008,69 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E41" s="3">
         <v>20700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>63400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>59900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>53600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>56000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>66200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>67600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2999,65 +3086,68 @@
       <c r="AA41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E42" s="3">
         <v>76600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>77800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>90100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>103400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>83600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>101000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>128500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>147700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>142900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>76000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>71500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>77400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>81300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>83600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>91800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>102700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>97100</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>19</v>
       </c>
@@ -3076,68 +3166,71 @@
       <c r="AA42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E43" s="3">
         <v>20700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>19</v>
       </c>
@@ -3153,68 +3246,71 @@
       <c r="AA43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E44" s="3">
         <v>17300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>16500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3000</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>19</v>
       </c>
@@ -3230,68 +3326,71 @@
       <c r="AA44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3100</v>
       </c>
       <c r="H45" s="3">
         <v>3100</v>
       </c>
       <c r="I45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>2600</v>
       </c>
       <c r="L45" s="3">
         <v>2600</v>
       </c>
       <c r="M45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>19</v>
       </c>
@@ -3307,68 +3406,71 @@
       <c r="AA45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>128400</v>
+      </c>
+      <c r="E46" s="3">
         <v>137600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>139200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>148300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>161300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>175900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>185600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>199100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>208100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>218200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>149500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>154500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>162000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>111500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>112700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>119000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>129400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>136000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>24900</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>19</v>
       </c>
@@ -3384,8 +3486,11 @@
       <c r="AA46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3423,19 +3528,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>1300</v>
       </c>
       <c r="Q47" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="R47" s="3">
         <v>5300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>19</v>
+      <c r="S47" s="3">
+        <v>5300</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>19</v>
@@ -3449,8 +3554,8 @@
       <c r="W47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3461,68 +3566,71 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E48" s="3">
         <v>19600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>7900</v>
       </c>
       <c r="J48" s="3">
         <v>7900</v>
       </c>
       <c r="K48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L48" s="3">
         <v>7300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>4500</v>
       </c>
       <c r="M48" s="3">
         <v>4500</v>
       </c>
       <c r="N48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O48" s="3">
         <v>4400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>19</v>
       </c>
@@ -3538,8 +3646,11 @@
       <c r="AA48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3726,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +3886,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3802,7 +3922,7 @@
         <v>400</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
@@ -3826,11 +3946,11 @@
         <v>300</v>
       </c>
       <c r="U52" s="3">
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
         <v>1500</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3846,8 +3966,11 @@
       <c r="AA52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,68 +4046,71 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E54" s="3">
         <v>157600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>158300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>166100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>176800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>190500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>194000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>207300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>215800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>223100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>154300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>159200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>167800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>117000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>121300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>127100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>132100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>138500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>19</v>
       </c>
@@ -4000,8 +4126,11 @@
       <c r="AA54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,68 +4188,69 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E57" s="3">
         <v>6300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1800</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>19</v>
       </c>
@@ -4135,22 +4266,25 @@
       <c r="AA57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>19</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>19</v>
@@ -4164,8 +4298,8 @@
       <c r="K58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4174,14 +4308,14 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>8700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>19</v>
       </c>
@@ -4194,8 +4328,8 @@
       <c r="U58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4212,68 +4346,71 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E59" s="3">
         <v>14900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>9300</v>
       </c>
       <c r="O59" s="3">
         <v>9300</v>
       </c>
       <c r="P59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>11600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>19</v>
       </c>
@@ -4289,68 +4426,71 @@
       <c r="AA59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E60" s="3">
         <v>21200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12800</v>
-      </c>
-      <c r="R60" s="3">
-        <v>9900</v>
       </c>
       <c r="S60" s="3">
         <v>9900</v>
       </c>
       <c r="T60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="U60" s="3">
         <v>9000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8900</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>19</v>
       </c>
@@ -4366,68 +4506,71 @@
       <c r="AA60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E61" s="3">
         <v>35200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>33700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>35000</v>
       </c>
       <c r="H61" s="3">
         <v>35000</v>
       </c>
       <c r="I61" s="3">
+        <v>35000</v>
+      </c>
+      <c r="J61" s="3">
         <v>34900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>39600</v>
-      </c>
-      <c r="K61" s="3">
-        <v>39500</v>
       </c>
       <c r="L61" s="3">
         <v>39500</v>
       </c>
       <c r="M61" s="3">
+        <v>39500</v>
+      </c>
+      <c r="N61" s="3">
         <v>39400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>39300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>39200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>39100</v>
-      </c>
-      <c r="S61" s="3">
-        <v>39000</v>
       </c>
       <c r="T61" s="3">
         <v>39000</v>
       </c>
       <c r="U61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="V61" s="3">
         <v>40000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4443,43 +4586,46 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>900</v>
       </c>
       <c r="J62" s="3">
         <v>900</v>
       </c>
       <c r="K62" s="3">
+        <v>900</v>
+      </c>
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>400</v>
       </c>
       <c r="O62" s="3">
         <v>400</v>
@@ -4500,11 +4646,11 @@
         <v>400</v>
       </c>
       <c r="U62" s="3">
+        <v>400</v>
+      </c>
+      <c r="V62" s="3">
         <v>300</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>19</v>
       </c>
@@ -4520,8 +4666,11 @@
       <c r="AA62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,68 +4906,71 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E66" s="3">
         <v>59300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>50300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>53100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>53800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>51400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>51500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>54000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>49400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>49300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>48300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49300</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +4986,11 @@
       <c r="AA66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5068,11 +5236,11 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>118500</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,68 +5336,71 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-368200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-357100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-345900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-331800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-313300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-295800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-281400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-265500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-251500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-239300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-230300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-220800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-208400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-195600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-186500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-175200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-166500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-157200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-151900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>19</v>
       </c>
@@ -5242,8 +5416,11 @@
       <c r="AA72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,68 +5656,71 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E76" s="3">
         <v>98300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>102800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>110800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>122400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>134400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>143600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>154200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>161700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>169400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>102000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>107900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>116300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>63000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>69000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>77700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>82800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>90200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-139400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>19</v>
       </c>
@@ -5550,8 +5736,11 @@
       <c r="AA76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-6600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,34 +6013,35 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>700</v>
       </c>
       <c r="H83" s="3">
         <v>700</v>
       </c>
       <c r="I83" s="3">
+        <v>700</v>
+      </c>
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -5854,7 +6053,7 @@
         <v>300</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5881,7 +6080,7 @@
         <v>200</v>
       </c>
       <c r="X83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y83" s="3">
         <v>300</v>
@@ -5890,10 +6089,13 @@
         <v>300</v>
       </c>
       <c r="AA83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6603,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>8700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>15400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>26800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>16600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-67800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>6700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-97000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6953,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,121 +7271,127 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>73000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>63200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>114500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>5500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -7150,113 +7399,119 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-36100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>57100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-12600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>SIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,360 +665,373 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E8" s="3">
         <v>32700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>25200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>13400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>13700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E9" s="3">
         <v>5900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1600</v>
       </c>
       <c r="S9" s="3">
         <v>1600</v>
       </c>
       <c r="T9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U9" s="3">
         <v>1500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1400</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1200</v>
       </c>
       <c r="W9" s="3">
         <v>1200</v>
       </c>
       <c r="X9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y9" s="3">
         <v>1000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E10" s="3">
         <v>26800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>22100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21800</v>
-      </c>
-      <c r="J10" s="3">
-        <v>19800</v>
       </c>
       <c r="K10" s="3">
         <v>19800</v>
       </c>
       <c r="L10" s="3">
+        <v>19800</v>
+      </c>
+      <c r="M10" s="3">
         <v>18200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>14700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>14200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>12200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>12500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>11700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>10400</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>10000</v>
       </c>
       <c r="AA10" s="3">
         <v>10000</v>
       </c>
       <c r="AB10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AC10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,88 +1060,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="3">
         <v>3300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1800</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1900</v>
       </c>
       <c r="S12" s="3">
         <v>1900</v>
       </c>
       <c r="T12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U12" s="3">
         <v>1700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1207,50 +1224,53 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1263,8 +1283,8 @@
       <c r="T14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1287,8 +1307,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1367,8 +1390,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1420,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E17" s="3">
         <v>44000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>28300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>23800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>15600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>16700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>16200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>17000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1584,182 +1617,189 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
         <v>1000</v>
       </c>
       <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>400</v>
       </c>
       <c r="P20" s="3">
         <v>400</v>
       </c>
       <c r="Q20" s="3">
+        <v>400</v>
+      </c>
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
-      </c>
-      <c r="S20" s="3">
-        <v>700</v>
       </c>
       <c r="T20" s="3">
         <v>700</v>
       </c>
       <c r="U20" s="3">
+        <v>700</v>
+      </c>
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-9900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-7900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>600</v>
       </c>
       <c r="H22" s="3">
         <v>600</v>
@@ -1768,10 +1808,10 @@
         <v>600</v>
       </c>
       <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
         <v>900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1100</v>
       </c>
       <c r="L22" s="3">
         <v>1100</v>
@@ -1783,7 +1823,7 @@
         <v>1100</v>
       </c>
       <c r="O22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="P22" s="3">
         <v>1200</v>
@@ -1801,7 +1841,7 @@
         <v>1200</v>
       </c>
       <c r="U22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="V22" s="3">
         <v>1300</v>
@@ -1813,99 +1853,105 @@
         <v>1300</v>
       </c>
       <c r="Y22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Z22" s="3">
         <v>1000</v>
       </c>
       <c r="AA22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-6600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1972,8 +2018,8 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>19</v>
+      <c r="Y24" s="3">
+        <v>0</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>19</v>
@@ -1984,8 +2030,11 @@
       <c r="AB24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2113,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-6600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-6600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2362,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2384,8 +2445,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2528,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,168 +2611,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1000</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
         <v>-1000</v>
       </c>
       <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-400</v>
       </c>
       <c r="P32" s="3">
         <v>-400</v>
       </c>
       <c r="Q32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-700</v>
       </c>
       <c r="T32" s="3">
         <v>-700</v>
       </c>
       <c r="U32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-6600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2860,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-6600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3064,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,71 +3095,72 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E41" s="3">
         <v>23000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>63400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>59900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>53600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>56000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>66200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>67600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14000</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>19</v>
       </c>
@@ -3089,68 +3176,71 @@
       <c r="AB41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E42" s="3">
         <v>63000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>76600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>77800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>90100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>103400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>83600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>101000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>128500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>147700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>142900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>76000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>71500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>77400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>81300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>83600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>91800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>102700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>97100</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>19</v>
       </c>
@@ -3169,71 +3259,74 @@
       <c r="AB42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E43" s="3">
         <v>22600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>19</v>
       </c>
@@ -3249,71 +3342,74 @@
       <c r="AB43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E44" s="3">
         <v>17800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>16900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>14700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3000</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>19</v>
       </c>
@@ -3329,71 +3425,74 @@
       <c r="AB44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3100</v>
       </c>
       <c r="I45" s="3">
         <v>3100</v>
       </c>
       <c r="J45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>2600</v>
       </c>
       <c r="M45" s="3">
         <v>2600</v>
       </c>
       <c r="N45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>19</v>
       </c>
@@ -3409,71 +3508,74 @@
       <c r="AB45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>212500</v>
+      </c>
+      <c r="E46" s="3">
         <v>128400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>137600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>139200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>148300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>161300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>175900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>185600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>199100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>208100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>218200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>149500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>154500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>162000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>111500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>112700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>119000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>129400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>136000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>24900</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>19</v>
       </c>
@@ -3489,8 +3591,11 @@
       <c r="AB46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3531,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>1300</v>
       </c>
       <c r="R47" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="S47" s="3">
         <v>5300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>19</v>
+      <c r="T47" s="3">
+        <v>5300</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>19</v>
@@ -3557,8 +3662,8 @@
       <c r="X47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3569,71 +3674,74 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E48" s="3">
         <v>20300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>7900</v>
       </c>
       <c r="K48" s="3">
         <v>7900</v>
       </c>
       <c r="L48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="M48" s="3">
         <v>7300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4500</v>
       </c>
       <c r="N48" s="3">
         <v>4500</v>
       </c>
       <c r="O48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P48" s="3">
         <v>4400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>19</v>
       </c>
@@ -3649,8 +3757,11 @@
       <c r="AB48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3729,8 +3840,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3923,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,13 +4006,16 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -3925,7 +4045,7 @@
         <v>400</v>
       </c>
       <c r="N52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
@@ -3949,11 +4069,11 @@
         <v>300</v>
       </c>
       <c r="V52" s="3">
+        <v>300</v>
+      </c>
+      <c r="W52" s="3">
         <v>1500</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3969,8 +4089,11 @@
       <c r="AB52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,71 +4172,74 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>233800</v>
+      </c>
+      <c r="E54" s="3">
         <v>149100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>157600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>158300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>166100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>176800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>190500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>194000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>207300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>215800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>223100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>154300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>159200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>167800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>117000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>121300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>127100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>132100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>138500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28400</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>19</v>
       </c>
@@ -4129,8 +4255,11 @@
       <c r="AB54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4288,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,71 +4319,72 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1800</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>19</v>
       </c>
@@ -4269,25 +4400,28 @@
       <c r="AB57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>19</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>19</v>
@@ -4301,8 +4435,8 @@
       <c r="L58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4311,14 +4445,14 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>8700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4400</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>19</v>
       </c>
@@ -4331,8 +4465,8 @@
       <c r="V58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4349,71 +4483,74 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>9300</v>
       </c>
       <c r="P59" s="3">
         <v>9300</v>
       </c>
       <c r="Q59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="R59" s="3">
         <v>11600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7200</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>19</v>
       </c>
@@ -4429,71 +4566,74 @@
       <c r="AB59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E60" s="3">
         <v>16600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>9900</v>
       </c>
       <c r="T60" s="3">
         <v>9900</v>
       </c>
       <c r="U60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="V60" s="3">
         <v>9000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8900</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>19</v>
       </c>
@@ -4509,71 +4649,74 @@
       <c r="AB60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E61" s="3">
         <v>35900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>33700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>35000</v>
       </c>
       <c r="I61" s="3">
         <v>35000</v>
       </c>
       <c r="J61" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K61" s="3">
         <v>34900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39600</v>
-      </c>
-      <c r="L61" s="3">
-        <v>39500</v>
       </c>
       <c r="M61" s="3">
         <v>39500</v>
       </c>
       <c r="N61" s="3">
+        <v>39500</v>
+      </c>
+      <c r="O61" s="3">
         <v>39400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>39300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>30600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>34900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>39200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>39100</v>
-      </c>
-      <c r="T61" s="3">
-        <v>39000</v>
       </c>
       <c r="U61" s="3">
         <v>39000</v>
       </c>
       <c r="V61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="W61" s="3">
         <v>40000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4589,46 +4732,49 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>900</v>
       </c>
       <c r="K62" s="3">
         <v>900</v>
       </c>
       <c r="L62" s="3">
+        <v>900</v>
+      </c>
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>400</v>
@@ -4649,11 +4795,11 @@
         <v>400</v>
       </c>
       <c r="V62" s="3">
+        <v>400</v>
+      </c>
+      <c r="W62" s="3">
         <v>300</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>19</v>
       </c>
@@ -4669,8 +4815,11 @@
       <c r="AB62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4898,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4981,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,71 +5064,74 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E66" s="3">
         <v>55100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>59300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>50300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>53100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>54100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>53800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>51400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>51500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>54000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>52400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>49400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>48300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>49300</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>19</v>
       </c>
@@ -4989,8 +5147,11 @@
       <c r="AB66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5180,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5261,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5344,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5239,11 +5407,11 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>118500</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
@@ -5259,8 +5427,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,71 +5510,74 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-379400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-368200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-357100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-345900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-331800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-313300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-295800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-281400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-265500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-251500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-239300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-230300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-220800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-208400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-195600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-186500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-175200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-166500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-157200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-151900</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>19</v>
       </c>
@@ -5419,8 +5593,11 @@
       <c r="AB72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5676,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5759,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,71 +5842,74 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>177400</v>
+      </c>
+      <c r="E76" s="3">
         <v>94000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>98300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>102800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>110800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>122400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>134400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>143600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>154200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>161700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>169400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>102000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>107900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>116300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>63000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>69000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>77700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>82800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>90200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-139400</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>19</v>
       </c>
@@ -5739,8 +5925,11 @@
       <c r="AB76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6008,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-6600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,37 +6212,38 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>700</v>
       </c>
       <c r="I83" s="3">
         <v>700</v>
       </c>
       <c r="J83" s="3">
+        <v>700</v>
+      </c>
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
@@ -6056,7 +6255,7 @@
         <v>300</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -6083,7 +6282,7 @@
         <v>200</v>
       </c>
       <c r="Y83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z83" s="3">
         <v>300</v>
@@ -6092,10 +6291,13 @@
         <v>300</v>
       </c>
       <c r="AB83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6376,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6459,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6542,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6625,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6708,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +6824,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6988,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7071,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>11700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>8700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>11000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>15400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>26800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>16600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-67800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-97000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7187,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7034,8 +7268,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7351,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7434,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,127 +7517,133 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>89100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>73000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>63200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>114500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>5500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -7402,116 +7651,122 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
         <v>0</v>
       </c>
       <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-36100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>57100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-12600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>7600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>SIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,290 +665,300 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E8" s="3">
         <v>33300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>25600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>13400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>13700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2000</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1600</v>
       </c>
       <c r="T9" s="3">
         <v>1600</v>
       </c>
       <c r="U9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V9" s="3">
         <v>1500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1400</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1200</v>
       </c>
       <c r="X9" s="3">
         <v>1200</v>
       </c>
       <c r="Y9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -956,82 +966,85 @@
         <v>27000</v>
       </c>
       <c r="E10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F10" s="3">
         <v>26800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>22200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21800</v>
-      </c>
-      <c r="K10" s="3">
-        <v>19800</v>
       </c>
       <c r="L10" s="3">
         <v>19800</v>
       </c>
       <c r="M10" s="3">
+        <v>19800</v>
+      </c>
+      <c r="N10" s="3">
         <v>18200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>17800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>14600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>14700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>14200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>12200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>12500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>11700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>10400</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>10000</v>
       </c>
       <c r="AB10" s="3">
         <v>10000</v>
       </c>
       <c r="AC10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AD10" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,91 +1074,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E12" s="3">
         <v>3700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1800</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1900</v>
       </c>
       <c r="T12" s="3">
         <v>1900</v>
       </c>
       <c r="U12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V12" s="3">
         <v>1700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1227,8 +1244,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1238,42 +1258,42 @@
       <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1286,8 +1306,8 @@
       <c r="U14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1310,8 +1330,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1393,8 +1416,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1421,174 +1447,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E17" s="3">
         <v>45300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>44000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>28700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>28300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>26800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>15400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>15600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>16700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>16200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>17000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>59700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-5100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1618,174 +1651,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1000</v>
       </c>
       <c r="F20" s="3">
         <v>1000</v>
       </c>
       <c r="G20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>400</v>
       </c>
       <c r="Q20" s="3">
         <v>400</v>
       </c>
       <c r="R20" s="3">
+        <v>400</v>
+      </c>
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
-      </c>
-      <c r="T20" s="3">
-        <v>700</v>
       </c>
       <c r="U20" s="3">
         <v>700</v>
       </c>
       <c r="V20" s="3">
+        <v>700</v>
+      </c>
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-14400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-9900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-7200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-7900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-5400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1793,16 +1833,16 @@
         <v>900</v>
       </c>
       <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>600</v>
       </c>
       <c r="I22" s="3">
         <v>600</v>
@@ -1811,10 +1851,10 @@
         <v>600</v>
       </c>
       <c r="K22" s="3">
+        <v>600</v>
+      </c>
+      <c r="L22" s="3">
         <v>900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1100</v>
       </c>
       <c r="M22" s="3">
         <v>1100</v>
@@ -1826,7 +1866,7 @@
         <v>1100</v>
       </c>
       <c r="P22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Q22" s="3">
         <v>1200</v>
@@ -1844,7 +1884,7 @@
         <v>1200</v>
       </c>
       <c r="V22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="W22" s="3">
         <v>1300</v>
@@ -1856,102 +1896,108 @@
         <v>1300</v>
       </c>
       <c r="Z22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="AA22" s="3">
         <v>1000</v>
       </c>
       <c r="AB22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC22" s="3">
         <v>900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-6600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2021,8 +2067,8 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>19</v>
+      <c r="Z24" s="3">
+        <v>0</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>19</v>
@@ -2033,8 +2079,11 @@
       <c r="AC24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2116,174 +2165,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-6600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-6600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2365,8 +2423,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2448,8 +2509,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2531,8 +2595,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2614,174 +2681,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-1000</v>
       </c>
       <c r="F32" s="3">
         <v>-1000</v>
       </c>
       <c r="G32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-400</v>
       </c>
       <c r="Q32" s="3">
         <v>-400</v>
       </c>
       <c r="R32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-700</v>
       </c>
       <c r="U32" s="3">
         <v>-700</v>
       </c>
       <c r="V32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-6600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2863,179 +2939,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-6600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3065,8 +3150,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3096,74 +3182,75 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E41" s="3">
         <v>110800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>63400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>59900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>53600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>56000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>66200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>67600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14000</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>19</v>
       </c>
@@ -3179,71 +3266,74 @@
       <c r="AC41" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>113300</v>
+      </c>
+      <c r="E42" s="3">
         <v>58600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>63000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>76600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>77800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>90100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>103400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>83600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>101000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>128500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>147700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>142900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>76000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>71500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>77400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>81300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>83600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>91800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>102700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>97100</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>19</v>
       </c>
@@ -3262,74 +3352,77 @@
       <c r="AC42" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E43" s="3">
         <v>20400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>22600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>20700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7100</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>19</v>
       </c>
@@ -3345,74 +3438,77 @@
       <c r="AC43" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E44" s="3">
         <v>20500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>16500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>14700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>11500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3000</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y44" s="3" t="s">
         <v>19</v>
       </c>
@@ -3428,74 +3524,77 @@
       <c r="AC44" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>3100</v>
       </c>
       <c r="J45" s="3">
         <v>3100</v>
       </c>
       <c r="K45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>2600</v>
       </c>
       <c r="N45" s="3">
         <v>2600</v>
       </c>
       <c r="O45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>19</v>
       </c>
@@ -3511,74 +3610,77 @@
       <c r="AC45" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E46" s="3">
         <v>212500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>128400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>137600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>139200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>148300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>161300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>175900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>185600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>199100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>208100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>218200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>149500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>154500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>162000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>111500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>112700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>119000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>129400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>136000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>24900</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>19</v>
       </c>
@@ -3594,8 +3696,11 @@
       <c r="AC46" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3639,19 +3744,19 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>1300</v>
       </c>
       <c r="S47" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="T47" s="3">
         <v>5300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>19</v>
+      <c r="U47" s="3">
+        <v>5300</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>19</v>
@@ -3665,8 +3770,8 @@
       <c r="Y47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3677,74 +3782,77 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E48" s="3">
         <v>21000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>7900</v>
       </c>
       <c r="L48" s="3">
         <v>7900</v>
       </c>
       <c r="M48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="N48" s="3">
         <v>7300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>4500</v>
       </c>
       <c r="O48" s="3">
         <v>4500</v>
       </c>
       <c r="P48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2000</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>19</v>
       </c>
@@ -3760,8 +3868,11 @@
       <c r="AC48" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3843,8 +3954,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3926,8 +4040,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4009,8 +4126,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4018,7 +4138,7 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -4048,7 +4168,7 @@
         <v>400</v>
       </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
@@ -4072,11 +4192,11 @@
         <v>300</v>
       </c>
       <c r="W52" s="3">
+        <v>300</v>
+      </c>
+      <c r="X52" s="3">
         <v>1500</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>19</v>
       </c>
@@ -4092,8 +4212,11 @@
       <c r="AC52" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4175,74 +4298,77 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>230900</v>
+      </c>
+      <c r="E54" s="3">
         <v>233800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>149100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>157600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>158300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>166100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>176800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>190500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>194000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>207300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>215800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>223100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>154300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>159200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>167800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>117000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>121300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>127100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>132100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>138500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28400</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>19</v>
       </c>
@@ -4258,8 +4384,11 @@
       <c r="AC54" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4289,8 +4418,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4320,74 +4450,75 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>6200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1800</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>19</v>
       </c>
@@ -4403,8 +4534,11 @@
       <c r="AC57" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4414,17 +4548,17 @@
       <c r="E58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>19</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>19</v>
@@ -4438,8 +4572,8 @@
       <c r="M58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4448,14 +4582,14 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>8700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>19</v>
       </c>
@@ -4468,8 +4602,8 @@
       <c r="W58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4486,74 +4620,77 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>9300</v>
       </c>
       <c r="Q59" s="3">
         <v>9300</v>
       </c>
       <c r="R59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="S59" s="3">
         <v>11600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7200</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>19</v>
       </c>
@@ -4569,74 +4706,77 @@
       <c r="AC59" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E60" s="3">
         <v>18200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12800</v>
-      </c>
-      <c r="T60" s="3">
-        <v>9900</v>
       </c>
       <c r="U60" s="3">
         <v>9900</v>
       </c>
       <c r="V60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="W60" s="3">
         <v>9000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8900</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>19</v>
       </c>
@@ -4652,8 +4792,11 @@
       <c r="AC60" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4661,65 +4804,65 @@
         <v>36000</v>
       </c>
       <c r="E61" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F61" s="3">
         <v>35900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>33700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>35000</v>
       </c>
       <c r="J61" s="3">
         <v>35000</v>
       </c>
       <c r="K61" s="3">
+        <v>35000</v>
+      </c>
+      <c r="L61" s="3">
         <v>34900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>39500</v>
       </c>
       <c r="N61" s="3">
         <v>39500</v>
       </c>
       <c r="O61" s="3">
+        <v>39500</v>
+      </c>
+      <c r="P61" s="3">
         <v>39400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>39300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>34900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>39200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>39100</v>
-      </c>
-      <c r="U61" s="3">
-        <v>39000</v>
       </c>
       <c r="V61" s="3">
         <v>39000</v>
       </c>
       <c r="W61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="X61" s="3">
         <v>40000</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4735,49 +4878,52 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>900</v>
       </c>
       <c r="L62" s="3">
         <v>900</v>
       </c>
       <c r="M62" s="3">
+        <v>900</v>
+      </c>
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>400</v>
       </c>
       <c r="Q62" s="3">
         <v>400</v>
@@ -4798,11 +4944,11 @@
         <v>400</v>
       </c>
       <c r="W62" s="3">
+        <v>400</v>
+      </c>
+      <c r="X62" s="3">
         <v>300</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>19</v>
       </c>
@@ -4818,8 +4964,11 @@
       <c r="AC62" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4901,8 +5050,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4984,8 +5136,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5067,74 +5222,77 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E66" s="3">
         <v>56400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>59300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>50300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>53100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>53800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>51400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>51500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>54000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>52400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>48300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>49300</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>19</v>
       </c>
@@ -5150,8 +5308,11 @@
       <c r="AC66" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5181,8 +5342,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5264,8 +5426,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5347,8 +5512,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5410,11 +5578,11 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>118500</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
@@ -5430,8 +5598,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5513,74 +5684,77 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-389500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-379400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-368200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-357100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-345900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-331800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-313300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-295800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-281400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-265500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-251500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-239300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-230300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-220800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-208400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-195600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-186500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-175200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-166500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-157200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-151900</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>19</v>
       </c>
@@ -5596,8 +5770,11 @@
       <c r="AC72" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5679,8 +5856,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5762,8 +5942,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5845,74 +6028,77 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>173600</v>
+      </c>
+      <c r="E76" s="3">
         <v>177400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>94000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>102800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>110800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>122400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>134400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>143600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>154200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>161700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>169400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>102000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>107900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>116300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>63000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>69000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>77700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>82800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>90200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-139400</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>19</v>
       </c>
@@ -5928,8 +6114,11 @@
       <c r="AC76" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6011,179 +6200,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-6600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-20600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6213,40 +6411,41 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>700</v>
       </c>
       <c r="J83" s="3">
         <v>700</v>
       </c>
       <c r="K83" s="3">
+        <v>700</v>
+      </c>
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -6258,7 +6457,7 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -6285,7 +6484,7 @@
         <v>200</v>
       </c>
       <c r="Z83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA83" s="3">
         <v>300</v>
@@ -6294,10 +6493,13 @@
         <v>300</v>
       </c>
       <c r="AC83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6379,8 +6581,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6462,8 +6667,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6545,8 +6753,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6628,8 +6839,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6711,91 +6925,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-4700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6825,91 +7045,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-200</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6991,8 +7215,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7074,91 +7301,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="E94" s="3">
         <v>2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>11700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>8700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>11000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>15400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>26800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>16600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-67800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>7700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-97000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-200</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7188,8 +7421,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7271,8 +7505,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7354,8 +7591,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7437,8 +7677,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7520,133 +7763,139 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>89100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>73000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>63200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>114500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>5500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -7654,119 +7903,125 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
       <c r="AB101" s="3">
         <v>0</v>
       </c>
       <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="E102" s="3">
         <v>87800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-36100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>57100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-12600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>7600</v>
       </c>
     </row>
